--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Nr.</t>
   </si>
@@ -285,9 +285,6 @@
     <t>Themes testen</t>
   </si>
   <si>
-    <t>Aronet anrufen und Webserver mieten</t>
-  </si>
-  <si>
     <t>Wordpress Installation</t>
   </si>
   <si>
@@ -313,6 +310,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Aronet anrufen und Webserver mieten einrichten</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>Notlösung!</t>
   </si>
 </sst>
 </file>
@@ -322,7 +328,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -474,8 +480,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,6 +564,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -716,7 +741,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1">
@@ -726,8 +751,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -749,9 +775,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -797,32 +820,6 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -832,19 +829,12 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -863,9 +853,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,9 +938,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -974,17 +958,63 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Akzent2" xfId="5" builtinId="33"/>
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
     <cellStyle name="Gelb-Feld" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="schatten_blau" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1180,10 +1210,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1</c:v>
+                  <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1406,10 +1436,10 @@
                   <c:v>14.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -1477,13 +1507,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.3</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1998,8 +2028,8 @@
   </sheetPr>
   <dimension ref="A1:AO44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2007,9 +2037,9 @@
     <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="44.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="3.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="3.875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="3.875" style="12" customWidth="1"/>
     <col min="5" max="9" width="3.875" style="5" customWidth="1"/>
-    <col min="10" max="11" width="3.875" style="14" customWidth="1"/>
+    <col min="10" max="11" width="3.875" style="13" customWidth="1"/>
     <col min="12" max="31" width="3.25" style="5" customWidth="1"/>
     <col min="32" max="36" width="3.25" style="4" customWidth="1"/>
     <col min="37" max="41" width="3.125" style="4" customWidth="1"/>
@@ -2017,1831 +2047,1846 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
     </row>
     <row r="2" spans="1:41" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="82"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
     </row>
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="50" t="s">
+      <c r="D3" s="76"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50" t="s">
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50" t="s">
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="78"/>
+      <c r="AO3" s="78"/>
     </row>
     <row r="4" spans="1:41" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
+      <c r="A4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="58">
+      <c r="K4" s="43">
         <v>43075</v>
       </c>
-      <c r="L4" s="59">
+      <c r="L4" s="44">
         <v>43080</v>
       </c>
-      <c r="M4" s="59">
+      <c r="M4" s="44">
         <v>43081</v>
       </c>
-      <c r="N4" s="59">
+      <c r="N4" s="44">
         <v>43082</v>
       </c>
-      <c r="O4" s="59">
+      <c r="O4" s="44">
         <v>43083</v>
       </c>
-      <c r="P4" s="59">
+      <c r="P4" s="44">
         <v>43084</v>
       </c>
-      <c r="Q4" s="59">
+      <c r="Q4" s="44">
         <v>43087</v>
       </c>
-      <c r="R4" s="59">
+      <c r="R4" s="44">
         <v>43088</v>
       </c>
-      <c r="S4" s="59">
+      <c r="S4" s="44">
         <v>43089</v>
       </c>
-      <c r="T4" s="59">
+      <c r="T4" s="44">
         <v>43090</v>
       </c>
-      <c r="U4" s="59">
+      <c r="U4" s="44">
         <v>43091</v>
       </c>
-      <c r="V4" s="59">
+      <c r="V4" s="44">
         <v>43108</v>
       </c>
-      <c r="W4" s="59">
+      <c r="W4" s="44">
         <v>43109</v>
       </c>
-      <c r="X4" s="59">
+      <c r="X4" s="44">
         <v>43110</v>
       </c>
-      <c r="Y4" s="59">
+      <c r="Y4" s="44">
         <v>43111</v>
       </c>
-      <c r="Z4" s="59">
+      <c r="Z4" s="44">
         <v>43112</v>
       </c>
-      <c r="AA4" s="59">
+      <c r="AA4" s="44">
         <v>43115</v>
       </c>
-      <c r="AB4" s="59">
+      <c r="AB4" s="44">
         <v>43116</v>
       </c>
-      <c r="AC4" s="59">
+      <c r="AC4" s="44">
         <v>43117</v>
       </c>
-      <c r="AD4" s="59">
+      <c r="AD4" s="44">
         <v>43118</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
     </row>
     <row r="5" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60">
+      <c r="A5" s="45">
         <v>10</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="25">
         <f>SUM(C6:C10)</f>
         <v>14.3</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="25">
         <f>SUM(D6:D10)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="71"/>
+    </row>
+    <row r="6" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36">
+        <v>11</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="47">
+        <v>1</v>
+      </c>
+      <c r="E6" s="47">
+        <v>1</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="49">
+        <v>1</v>
+      </c>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="27"/>
+    </row>
+    <row r="7" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36">
+        <v>12</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="47">
+        <v>3.5</v>
+      </c>
+      <c r="D7" s="47">
+        <v>3.5</v>
+      </c>
+      <c r="E7" s="47">
+        <v>1</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="55">
+        <v>3</v>
+      </c>
+      <c r="O7" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="69"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+    </row>
+    <row r="8" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36">
+        <v>13</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="47">
         <v>4</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="87"/>
-    </row>
-    <row r="6" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
-        <v>11</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="62">
-        <v>0.8</v>
-      </c>
-      <c r="D6" s="62">
+      <c r="D8" s="47" t="str">
+        <f t="shared" ref="D8:D10" si="0">IF(SUM(L8:AE8)=0," ",SUM(L8:AE8))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E8" s="47">
         <v>1</v>
       </c>
-      <c r="E6" s="62">
-        <v>1</v>
-      </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="64">
-        <v>1</v>
-      </c>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="88"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="39"/>
-    </row>
-    <row r="7" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51">
-        <v>12</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="62">
-        <v>3.5</v>
-      </c>
-      <c r="D7" s="62">
-        <v>3</v>
-      </c>
-      <c r="E7" s="62">
-        <v>1</v>
-      </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="70">
-        <v>3</v>
-      </c>
-      <c r="O7" s="70"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="88"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-    </row>
-    <row r="8" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
-        <v>13</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="62">
-        <v>4</v>
-      </c>
-      <c r="D8" s="62" t="str">
-        <f t="shared" ref="D7:D10" si="0">IF(SUM(L8:AE8)=0," ",SUM(L8:AE8))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E8" s="62">
-        <v>1</v>
-      </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="39"/>
-      <c r="AM8" s="39"/>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="39"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
     </row>
     <row r="9" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51">
+      <c r="A9" s="36">
         <v>14</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="47">
         <v>1.5</v>
       </c>
-      <c r="D9" s="62" t="str">
+      <c r="D9" s="47" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="47">
         <v>1</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="85"/>
-      <c r="AE9" s="88"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39"/>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="39"/>
-      <c r="AO9" s="39"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="69"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
     </row>
     <row r="10" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
+      <c r="A10" s="36">
         <v>15</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="47">
         <v>4.5</v>
       </c>
-      <c r="D10" s="62" t="str">
+      <c r="D10" s="47" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="47">
         <v>1</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="68"/>
-      <c r="AC10" s="70"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="88"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="39"/>
-      <c r="AL10" s="39"/>
-      <c r="AM10" s="39"/>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="39"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
     </row>
     <row r="11" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60">
+      <c r="A11" s="45">
         <v>20</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="25">
         <f>SUM(C12:C15)</f>
-        <v>1.7</v>
-      </c>
-      <c r="D11" s="36">
+        <v>2.7</v>
+      </c>
+      <c r="D11" s="25">
         <f>SUM(D12:D15)</f>
-        <v>3.3</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="88"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="72"/>
     </row>
     <row r="12" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
+      <c r="A12" s="36">
         <v>21</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="47">
+        <v>2</v>
+      </c>
+      <c r="D12" s="47">
+        <v>3</v>
+      </c>
+      <c r="E12" s="47">
         <v>1</v>
       </c>
-      <c r="D12" s="62">
-        <f>IF(SUM(L12:AE12)=0," ",SUM(L12:AE12))</f>
-        <v>2</v>
-      </c>
-      <c r="E12" s="62">
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="55">
+        <v>3</v>
+      </c>
+      <c r="O12" s="56"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
+    </row>
+    <row r="13" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36">
+        <v>22</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="47">
         <v>1</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="70">
-        <v>2</v>
-      </c>
-      <c r="O12" s="71"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="85"/>
-      <c r="AE12" s="88"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="39"/>
-      <c r="AN12" s="39"/>
-      <c r="AO12" s="39"/>
-    </row>
-    <row r="13" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51">
-        <v>22</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="62">
-        <v>0.7</v>
-      </c>
-      <c r="D13" s="62">
-        <v>1.3</v>
-      </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="70">
-        <v>1.3</v>
-      </c>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="85"/>
-      <c r="AE13" s="88"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="39"/>
-      <c r="AN13" s="39"/>
-      <c r="AO13" s="39"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="55">
+        <v>1</v>
+      </c>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="69"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="27"/>
     </row>
     <row r="14" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+      <c r="A14" s="36">
         <v>23</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="85"/>
-      <c r="AE14" s="88"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="39"/>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="39"/>
-      <c r="AJ14" s="39"/>
-      <c r="AK14" s="39"/>
-      <c r="AL14" s="39"/>
-      <c r="AM14" s="39"/>
-      <c r="AN14" s="39"/>
-      <c r="AO14" s="39"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
     </row>
     <row r="15" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51">
+      <c r="A15" s="36">
         <v>24</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62" t="str">
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47" t="str">
         <f t="shared" ref="D15" si="1">IF(SUM(L15:AE15)=0," ",SUM(L15:AE15))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="85"/>
-      <c r="AE15" s="88"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="39"/>
-      <c r="AJ15" s="39"/>
-      <c r="AK15" s="39"/>
-      <c r="AL15" s="39"/>
-      <c r="AM15" s="39"/>
-      <c r="AN15" s="39"/>
-      <c r="AO15" s="39"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="27"/>
     </row>
     <row r="16" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60">
+      <c r="A16" s="45">
         <v>30</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="25">
         <f>SUM(C17:C23)</f>
-        <v>14.5</v>
-      </c>
-      <c r="D16" s="36">
+        <v>16.5</v>
+      </c>
+      <c r="D16" s="25">
         <f>SUM(D17:D23)</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="72"/>
+    </row>
+    <row r="17" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36">
+        <v>31</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="47">
+        <f>IF(SUM(L17:AE17)=0," ",SUM(L17:AE17))</f>
+        <v>1.3</v>
+      </c>
+      <c r="E17" s="47">
+        <v>1</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="55">
         <v>0.8</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="88"/>
-    </row>
-    <row r="17" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51">
-        <v>31</v>
-      </c>
-      <c r="B17" s="74" t="s">
+      <c r="O17" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="69"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+    </row>
+    <row r="18" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36">
+        <v>32</v>
+      </c>
+      <c r="B18" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="62">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="62">
-        <f>IF(SUM(L17:AE17)=0," ",SUM(L17:AE17))</f>
-        <v>0.8</v>
-      </c>
-      <c r="E17" s="62">
+      <c r="C18" s="47">
+        <v>2</v>
+      </c>
+      <c r="D18" s="47">
+        <v>4</v>
+      </c>
+      <c r="E18" s="47">
         <v>1</v>
       </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="70">
-        <v>0.8</v>
-      </c>
-      <c r="O17" s="70"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="85"/>
-      <c r="AE17" s="88"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="39"/>
-      <c r="AO17" s="39"/>
-    </row>
-    <row r="18" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
-        <v>32</v>
-      </c>
-      <c r="B18" s="74" t="s">
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="93">
+        <v>3</v>
+      </c>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
+    </row>
+    <row r="19" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36">
+        <v>33</v>
+      </c>
+      <c r="B19" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C19" s="47">
+        <v>3.5</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47">
         <v>1</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62">
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51">
         <v>1</v>
       </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="85"/>
-      <c r="AE18" s="88"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="39"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="39"/>
-      <c r="AM18" s="39"/>
-      <c r="AN18" s="39"/>
-      <c r="AO18" s="39"/>
-    </row>
-    <row r="19" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51">
-        <v>33</v>
-      </c>
-      <c r="B19" s="74" t="s">
+      <c r="P19" s="55"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="69"/>
+      <c r="AE19" s="72"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
+    </row>
+    <row r="20" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36">
+        <v>34</v>
+      </c>
+      <c r="B20" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="62">
-        <v>3.5</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62">
+      <c r="C20" s="47">
+        <v>3</v>
+      </c>
+      <c r="D20" s="47">
+        <v>3</v>
+      </c>
+      <c r="E20" s="47">
         <v>1</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="68"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="85"/>
-      <c r="AE19" s="88"/>
-      <c r="AF19" s="39"/>
-      <c r="AG19" s="39"/>
-      <c r="AH19" s="39"/>
-      <c r="AI19" s="39"/>
-      <c r="AJ19" s="39"/>
-      <c r="AK19" s="39"/>
-      <c r="AL19" s="39"/>
-      <c r="AM19" s="39"/>
-      <c r="AN19" s="39"/>
-      <c r="AO19" s="39"/>
-    </row>
-    <row r="20" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51">
-        <v>34</v>
-      </c>
-      <c r="B20" s="74" t="s">
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51">
+        <v>3</v>
+      </c>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="69"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+    </row>
+    <row r="21" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36">
+        <v>35</v>
+      </c>
+      <c r="B21" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C21" s="47">
         <v>3</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62">
+      <c r="D21" s="47"/>
+      <c r="E21" s="47">
         <v>1</v>
       </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="85"/>
-      <c r="AE20" s="88"/>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="39"/>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="39"/>
-      <c r="AL20" s="39"/>
-      <c r="AM20" s="39"/>
-      <c r="AN20" s="39"/>
-      <c r="AO20" s="39"/>
-    </row>
-    <row r="21" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51">
-        <v>35</v>
-      </c>
-      <c r="B21" s="74" t="s">
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="69"/>
+      <c r="AE21" s="72"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+    </row>
+    <row r="22" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36">
+        <v>36</v>
+      </c>
+      <c r="B22" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="62">
-        <v>3</v>
-      </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62">
+      <c r="C22" s="47">
+        <v>2.5</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47">
         <v>1</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="85"/>
-      <c r="AE21" s="88"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="39"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="39"/>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="39"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="39"/>
-    </row>
-    <row r="22" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51">
-        <v>36</v>
-      </c>
-      <c r="B22" s="74" t="s">
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="69"/>
+      <c r="AE22" s="72"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
+    </row>
+    <row r="23" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36">
+        <v>37</v>
+      </c>
+      <c r="B23" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="62">
-        <v>2.5</v>
-      </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62">
+      <c r="C23" s="47">
         <v>1</v>
       </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="68"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="88"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="39"/>
-      <c r="AI22" s="39"/>
-      <c r="AJ22" s="39"/>
-      <c r="AK22" s="39"/>
-      <c r="AL22" s="39"/>
-      <c r="AM22" s="39"/>
-      <c r="AN22" s="39"/>
-      <c r="AO22" s="39"/>
-    </row>
-    <row r="23" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51">
-        <v>37</v>
-      </c>
-      <c r="B23" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="62">
-        <v>1</v>
-      </c>
-      <c r="D23" s="62" t="str">
+      <c r="D23" s="47" t="str">
         <f>IF(SUM(L23:AE23)=0," ",SUM(L23:AE23))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E23" s="62">
+      <c r="E23" s="47">
         <v>1</v>
       </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="68"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="88"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="39"/>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="39"/>
-      <c r="AJ23" s="39"/>
-      <c r="AK23" s="39"/>
-      <c r="AL23" s="39"/>
-      <c r="AM23" s="39"/>
-      <c r="AN23" s="39"/>
-      <c r="AO23" s="39"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="69"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
     </row>
     <row r="24" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60">
+      <c r="A24" s="45">
         <v>40</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="25">
         <f>SUM(C25:C27)</f>
         <v>2</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="25">
         <f>SUM(D25:D27)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="88"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="72"/>
     </row>
     <row r="25" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51">
+      <c r="A25" s="36">
         <v>40</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62" t="str">
+      <c r="C25" s="47"/>
+      <c r="D25" s="47" t="str">
         <f>IF(SUM(L25:AE25)=0," ",SUM(L25:AE25))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E25" s="62">
+      <c r="E25" s="47">
         <v>1</v>
       </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="68"/>
-      <c r="AC25" s="66"/>
-      <c r="AD25" s="85"/>
-      <c r="AE25" s="88"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="39"/>
-      <c r="AL25" s="39"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
-      <c r="AO25" s="39"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="53"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="69"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
     </row>
     <row r="26" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51">
+      <c r="A26" s="36">
         <v>41</v>
       </c>
-      <c r="B26" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="62">
+      <c r="B26" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="47">
         <v>2</v>
       </c>
-      <c r="D26" s="62" t="str">
+      <c r="D26" s="47" t="str">
         <f>IF(SUM(L26:AE26)=0," ",SUM(L26:AE26))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E26" s="62">
+      <c r="E26" s="47">
         <v>1</v>
       </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="70"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="70"/>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="67"/>
-      <c r="AB26" s="68"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="85"/>
-      <c r="AE26" s="88"/>
-      <c r="AF26" s="39"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="39"/>
-      <c r="AI26" s="39"/>
-      <c r="AJ26" s="39"/>
-      <c r="AK26" s="39"/>
-      <c r="AL26" s="39"/>
-      <c r="AM26" s="39"/>
-      <c r="AN26" s="39"/>
-      <c r="AO26" s="39"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="69"/>
+      <c r="AE26" s="72"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="27"/>
     </row>
     <row r="27" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51">
+      <c r="A27" s="36">
         <v>42</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62" t="str">
+      <c r="C27" s="47"/>
+      <c r="D27" s="47" t="str">
         <f>IF(SUM(L27:AE27)=0," ",SUM(L27:AE27))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="47">
         <v>1</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="68"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="85"/>
-      <c r="AE27" s="88"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="39"/>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="39"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="69"/>
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
     </row>
     <row r="28" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60">
+      <c r="A28" s="45">
         <v>50</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="25">
         <f>SUM(C29:C30)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="25">
         <f>SUM(D29:D30)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="88"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="72"/>
     </row>
     <row r="29" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51">
+      <c r="A29" s="36">
         <v>51</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62">
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47">
         <v>3</v>
       </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="68"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="67"/>
-      <c r="W29" s="68"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="67"/>
-      <c r="AB29" s="68"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="85"/>
-      <c r="AE29" s="88"/>
-      <c r="AF29" s="39"/>
-      <c r="AG29" s="39"/>
-      <c r="AH29" s="39"/>
-      <c r="AI29" s="39"/>
-      <c r="AJ29" s="39"/>
-      <c r="AK29" s="39"/>
-      <c r="AL29" s="39"/>
-      <c r="AM29" s="39"/>
-      <c r="AN29" s="39"/>
-      <c r="AO29" s="39"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="69"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="27"/>
+      <c r="AN29" s="27"/>
+      <c r="AO29" s="27"/>
     </row>
     <row r="30" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51">
+      <c r="A30" s="36">
         <v>52</v>
       </c>
-      <c r="B30" s="74"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62" t="str">
+      <c r="B30" s="59"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47" t="str">
         <f>IF(SUM(L30:AE30)=0," ",SUM(L30:AE30))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="67"/>
-      <c r="AB30" s="68"/>
-      <c r="AC30" s="66"/>
-      <c r="AD30" s="85"/>
-      <c r="AE30" s="88"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="39"/>
-      <c r="AH30" s="39"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="39"/>
-      <c r="AK30" s="39"/>
-      <c r="AL30" s="39"/>
-      <c r="AM30" s="39"/>
-      <c r="AN30" s="39"/>
-      <c r="AO30" s="39"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="69"/>
+      <c r="AE30" s="72"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27"/>
+      <c r="AN30" s="27"/>
+      <c r="AO30" s="27"/>
     </row>
     <row r="31" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60">
+      <c r="A31" s="45">
         <v>60</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="25">
         <f>SUM(C32:C33)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="25">
         <f>SUM(D32:D33)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="88"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="72"/>
     </row>
     <row r="32" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51">
+      <c r="A32" s="36">
         <v>61</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62" t="str">
+      <c r="C32" s="47"/>
+      <c r="D32" s="47" t="str">
         <f>IF(SUM(L32:AE32)=0," ",SUM(L32:AE32))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E32" s="62">
+      <c r="E32" s="47">
         <v>2</v>
       </c>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="67"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="67"/>
-      <c r="AB32" s="68"/>
-      <c r="AC32" s="71"/>
-      <c r="AD32" s="85"/>
-      <c r="AE32" s="88"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
-      <c r="AK32" s="39"/>
-      <c r="AL32" s="39"/>
-      <c r="AM32" s="39"/>
-      <c r="AN32" s="39"/>
-      <c r="AO32" s="39"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="53"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="69"/>
+      <c r="AE32" s="72"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="27"/>
+      <c r="AI32" s="27"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="27"/>
+      <c r="AL32" s="27"/>
+      <c r="AM32" s="27"/>
+      <c r="AN32" s="27"/>
+      <c r="AO32" s="27"/>
     </row>
     <row r="33" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51">
+      <c r="A33" s="36">
         <v>62</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62" t="str">
+      <c r="C33" s="47"/>
+      <c r="D33" s="47" t="str">
         <f>IF(SUM(L33:AE33)=0," ",SUM(L33:AE33))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E33" s="62">
+      <c r="E33" s="47">
         <v>1</v>
       </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="67"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="70"/>
-      <c r="AA33" s="67"/>
-      <c r="AB33" s="68"/>
-      <c r="AC33" s="76"/>
-      <c r="AD33" s="85"/>
-      <c r="AE33" s="88"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="39"/>
-      <c r="AH33" s="39"/>
-      <c r="AI33" s="39"/>
-      <c r="AJ33" s="39"/>
-      <c r="AK33" s="39"/>
-      <c r="AL33" s="39"/>
-      <c r="AM33" s="39"/>
-      <c r="AN33" s="39"/>
-      <c r="AO33" s="39"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="53"/>
+      <c r="AC33" s="61"/>
+      <c r="AD33" s="69"/>
+      <c r="AE33" s="72"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="27"/>
+      <c r="AN33" s="27"/>
+      <c r="AO33" s="27"/>
     </row>
     <row r="34" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="16" t="s">
+      <c r="A34" s="45"/>
+      <c r="B34" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="25">
         <f>SUM(C5+C11+C16+C24+C28+C31)</f>
-        <v>32.5</v>
-      </c>
-      <c r="D34" s="36">
+        <v>35.5</v>
+      </c>
+      <c r="D34" s="25">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>8.1</v>
-      </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="79">
+        <v>16.8</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="64">
         <f>SUM(K6:K33)</f>
         <v>1</v>
       </c>
-      <c r="L34" s="80">
+      <c r="L34" s="65">
         <f>SUM(L5:L33)</f>
         <v>0</v>
       </c>
-      <c r="M34" s="36">
+      <c r="M34" s="25">
         <f>SUM(M5:M33)</f>
         <v>0</v>
       </c>
-      <c r="N34" s="80">
+      <c r="N34" s="65">
         <f>SUM(N5:N33)</f>
-        <v>7.1</v>
-      </c>
-      <c r="O34" s="80">
-        <f t="shared" ref="L34:AE34" si="2">SUM(O5:O33)</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="80">
-        <f>SUM(P5:P33)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="80">
-        <f>SUM(Q5:Q33)</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="36">
-        <f>SUM(R5:R33)</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="80">
-        <f>SUM(S5:S33)</f>
-        <v>0</v>
-      </c>
-      <c r="T34" s="36">
-        <f>SUM(T5:T33)</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="80">
-        <f>SUM(U5:U33)</f>
-        <v>0</v>
-      </c>
-      <c r="V34" s="80">
-        <f>SUM(V5:V33)</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="36">
-        <f>SUM(W5:W33)</f>
-        <v>0</v>
-      </c>
-      <c r="X34" s="80">
-        <f>SUM(X5:X33)</f>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="36">
-        <f>SUM(Y5:Y33)</f>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="80">
+        <v>7.8</v>
+      </c>
+      <c r="O34" s="65">
+        <f>SUM(O5:O33)</f>
+        <v>8</v>
+      </c>
+      <c r="P34" s="65">
+        <f t="shared" ref="P34:Y34" si="2">SUM(P5:P33)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="80">
+      <c r="R34" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB34" s="36">
+      <c r="S34" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC34" s="80">
+      <c r="T34" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD34" s="37">
+      <c r="U34" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE34" s="89"/>
+      <c r="V34" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="65">
+        <f>SUM(Z5:Z33)</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="65">
+        <f>SUM(AA5:AA33)</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="25">
+        <f>SUM(AB5:AB33)</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="65">
+        <f>SUM(AC5:AC33)</f>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="26">
+        <f>SUM(AD5:AD33)</f>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="73"/>
     </row>
     <row r="35" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="35"/>
-      <c r="AF35" s="40"/>
-      <c r="AG35" s="40"/>
-      <c r="AH35" s="40"/>
-      <c r="AI35" s="40"/>
-      <c r="AJ35" s="40"/>
-      <c r="AK35" s="40"/>
-      <c r="AL35" s="40"/>
-      <c r="AM35" s="40"/>
-      <c r="AN35" s="40"/>
-      <c r="AO35" s="40"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="24"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="28"/>
+      <c r="AI35" s="28"/>
+      <c r="AJ35" s="28"/>
+      <c r="AK35" s="28"/>
+      <c r="AL35" s="28"/>
+      <c r="AM35" s="28"/>
+      <c r="AN35" s="28"/>
+      <c r="AO35" s="28"/>
     </row>
     <row r="36" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="7" t="s">
         <v>19</v>
       </c>
@@ -3854,111 +3899,115 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="27"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="81"/>
+      <c r="S36" s="81"/>
+      <c r="T36" s="81"/>
+      <c r="U36" s="81"/>
+      <c r="V36" s="81"/>
+      <c r="W36" s="81"/>
+      <c r="X36" s="81"/>
+      <c r="Y36" s="81"/>
+      <c r="Z36" s="81"/>
+      <c r="AA36" s="81"/>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="81"/>
+      <c r="AD36" s="81"/>
+      <c r="AE36" s="81"/>
     </row>
     <row r="37" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
+      <c r="A37" s="91" t="s">
+        <v>51</v>
+      </c>
       <c r="B37" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="25"/>
-      <c r="AD37" s="25"/>
-      <c r="AE37" s="25"/>
+        <v>48</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="79"/>
+      <c r="AC37" s="79"/>
+      <c r="AD37" s="79"/>
+      <c r="AE37" s="79"/>
     </row>
     <row r="38" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
+      <c r="A38" s="92"/>
+      <c r="B38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
+      <c r="W38" s="79"/>
+      <c r="X38" s="79"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="79"/>
+      <c r="AA38" s="79"/>
+      <c r="AB38" s="79"/>
+      <c r="AC38" s="79"/>
+      <c r="AD38" s="79"/>
+      <c r="AE38" s="79"/>
     </row>
     <row r="39" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="9"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
+      <c r="B42" s="11"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
@@ -3972,17 +4021,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AF3:AJ3"/>
+    <mergeCell ref="AK3:AO3"/>
+    <mergeCell ref="L37:AE38"/>
+    <mergeCell ref="L36:AE36"/>
+    <mergeCell ref="B35:J35"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="V3:Z3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="AF3:AJ3"/>
-    <mergeCell ref="AK3:AO3"/>
-    <mergeCell ref="L37:AE38"/>
-    <mergeCell ref="L36:AE36"/>
-    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4008,31 +4057,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -4047,309 +4096,309 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <f>Zeitplanung!L34</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <f>Zeitplanung!M$4</f>
         <v>43081</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <f>Zeitplanung!M34</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <f>Zeitplanung!N$4</f>
         <v>43082</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <f>Zeitplanung!N34</f>
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <f>Zeitplanung!O$4</f>
         <v>43083</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <f>Zeitplanung!O34</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <f>Zeitplanung!P$4</f>
         <v>43084</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <f>Zeitplanung!P34</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <f>Zeitplanung!Q$4</f>
         <v>43087</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <f>Zeitplanung!Q34</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <f>Zeitplanung!R$4</f>
         <v>43088</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <f>Zeitplanung!R34</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <f>Zeitplanung!S$4</f>
         <v>43089</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <f>Zeitplanung!S34</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <f>Zeitplanung!T$4</f>
         <v>43090</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <f>Zeitplanung!T34</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <f>Zeitplanung!U$4</f>
         <v>43091</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <f>Zeitplanung!U34</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <f>Zeitplanung!V$4</f>
         <v>43108</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <f>Zeitplanung!V34</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <f>Zeitplanung!W$4</f>
         <v>43109</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <f>Zeitplanung!W34</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <f>Zeitplanung!X$4</f>
         <v>43110</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <f>Zeitplanung!X34</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <f>Zeitplanung!Y$4</f>
         <v>43111</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <f>Zeitplanung!Y34</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <f>Zeitplanung!Z$4</f>
         <v>43112</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <f>Zeitplanung!Z34</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+      <c r="A19" s="20">
         <f>Zeitplanung!AA$4</f>
         <v>43115</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <f>Zeitplanung!AA34</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
+      <c r="A20" s="20">
         <f>Zeitplanung!AB$4</f>
         <v>43116</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <f>Zeitplanung!AB34</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <f>Zeitplanung!AC$4</f>
         <v>43117</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <f>Zeitplanung!AC34</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <f>Zeitplanung!AD$4</f>
         <v>43118</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <f>Zeitplanung!AD34</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
+      <c r="A23" s="20">
         <f>Zeitplanung!AE$4</f>
         <v>0</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <f>Zeitplanung!AE34</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <f>Zeitplanung!AF$4</f>
         <v>0</v>
       </c>
-      <c r="B24" s="19" t="e">
+      <c r="B24" s="18" t="e">
         <f>Zeitplanung!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
+      <c r="A25" s="20">
         <f>Zeitplanung!AG$4</f>
         <v>0</v>
       </c>
-      <c r="B25" s="19" t="e">
+      <c r="B25" s="18" t="e">
         <f>Zeitplanung!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <f>Zeitplanung!AH$4</f>
         <v>0</v>
       </c>
-      <c r="B26" s="19" t="e">
+      <c r="B26" s="18" t="e">
         <f>Zeitplanung!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
+      <c r="A27" s="20">
         <f>Zeitplanung!AI$4</f>
         <v>0</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <f>Zeitplanung!O31</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
+      <c r="A28" s="20">
         <f>Zeitplanung!AJ$4</f>
         <v>0</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <f>Zeitplanung!P31</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
+      <c r="A29" s="20">
         <f>Zeitplanung!AK$4</f>
         <v>0</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="18">
         <f>Zeitplanung!Q31</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
+      <c r="A30" s="20">
         <f>Zeitplanung!AL$4</f>
         <v>0</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <f>Zeitplanung!U31</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
+      <c r="A31" s="20">
         <f>Zeitplanung!AM$4</f>
         <v>0</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="18">
         <f>Zeitplanung!S31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21">
+      <c r="A32" s="20">
         <f>Zeitplanung!AN$4</f>
         <v>0</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="18">
         <f>Zeitplanung!T31</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
+      <c r="A33" s="20">
         <f>Zeitplanung!AO$4</f>
         <v>0</v>
       </c>
-      <c r="B33" s="19" t="e">
+      <c r="B33" s="18" t="e">
         <f>Zeitplanung!#REF!</f>
         <v>#REF!</v>
       </c>
@@ -4357,10 +4406,10 @@
     <row r="34" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="32"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
@@ -4369,85 +4418,85 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="19">
+      <c r="B37" s="84"/>
+      <c r="C37" s="18">
         <f>Zeitplanung!C5</f>
         <v>14.3</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="18">
         <f>Zeitplanung!D5</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="89"/>
+      <c r="C38" s="18">
+        <f>Zeitplanung!C11</f>
+        <v>2.7</v>
+      </c>
+      <c r="D38" s="18">
+        <f>Zeitplanung!D11</f>
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="19">
-        <f>Zeitplanung!C11</f>
-        <v>1.7</v>
-      </c>
-      <c r="D38" s="19">
-        <f>Zeitplanung!D11</f>
-        <v>3.3</v>
-      </c>
-    </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="19">
+      <c r="B39" s="84"/>
+      <c r="C39" s="18">
         <f>Zeitplanung!C16</f>
-        <v>14.5</v>
-      </c>
-      <c r="D39" s="19">
+        <v>16.5</v>
+      </c>
+      <c r="D39" s="18">
         <f>Zeitplanung!D16</f>
-        <v>0.8</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="19">
+      <c r="B40" s="89"/>
+      <c r="C40" s="18">
         <f>Zeitplanung!C24</f>
         <v>2</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="18">
         <f>Zeitplanung!D24</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="19">
+      <c r="B41" s="84"/>
+      <c r="C41" s="18">
         <f>Zeitplanung!C28</f>
         <v>0</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="18">
         <f>Zeitplanung!D28</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="19">
+      <c r="B42" s="84"/>
+      <c r="C42" s="18">
         <f>Zeitplanung!C31</f>
         <v>0</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="18">
         <f>Zeitplanung!D31</f>
         <v>0</v>
       </c>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -176,9 +176,6 @@
     <t>Priorität</t>
   </si>
   <si>
-    <t>Reserve</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>Notlösung!</t>
+  </si>
+  <si>
+    <t>Über childthemes nachgeschlagen</t>
   </si>
 </sst>
 </file>
@@ -961,13 +961,16 @@
     <xf numFmtId="14" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -983,6 +986,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1000,18 +1012,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Akzent2" xfId="5" builtinId="33"/>
@@ -1216,7 +1216,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1507,7 +1507,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.5</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -2029,7 +2029,7 @@
   <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2047,39 +2047,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
+      <c r="A1" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
       <c r="AF1" s="29"/>
       <c r="AG1" s="29"/>
       <c r="AH1" s="29"/>
@@ -2137,10 +2137,10 @@
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="76"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -2148,44 +2148,44 @@
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
-      <c r="L3" s="76" t="s">
+      <c r="L3" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76" t="s">
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76" t="s">
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="79"/>
     </row>
     <row r="4" spans="1:41" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
@@ -2202,19 +2202,19 @@
         <v>4</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K4" s="43">
         <v>43075</v>
@@ -2293,7 +2293,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="25">
         <f>SUM(C6:C10)</f>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="D5" s="25">
         <f>SUM(D6:D10)</f>
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
@@ -2336,7 +2336,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="47">
         <v>0.8</v>
@@ -2391,7 +2391,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="47">
         <v>3.5</v>
@@ -2448,14 +2448,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="47">
         <v>4</v>
       </c>
-      <c r="D8" s="47" t="str">
-        <f t="shared" ref="D8:D10" si="0">IF(SUM(L8:AE8)=0," ",SUM(L8:AE8))</f>
-        <v xml:space="preserve"> </v>
+      <c r="D8" s="47">
+        <v>0.5</v>
       </c>
       <c r="E8" s="47">
         <v>1</v>
@@ -2470,7 +2469,9 @@
       <c r="M8" s="50"/>
       <c r="N8" s="51"/>
       <c r="O8" s="51"/>
-      <c r="P8" s="55"/>
+      <c r="P8" s="55">
+        <v>0.5</v>
+      </c>
       <c r="Q8" s="52"/>
       <c r="R8" s="53"/>
       <c r="S8" s="51"/>
@@ -2502,14 +2503,14 @@
         <v>14</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="47">
         <v>1.5</v>
       </c>
-      <c r="D9" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+      <c r="D9" s="47">
+        <f t="shared" ref="D8:D10" si="0">IF(SUM(L9:AE9)=0," ",SUM(L9:AE9))</f>
+        <v>1.5</v>
       </c>
       <c r="E9" s="47">
         <v>1</v>
@@ -2524,7 +2525,9 @@
       <c r="M9" s="50"/>
       <c r="N9" s="51"/>
       <c r="O9" s="51"/>
-      <c r="P9" s="55"/>
+      <c r="P9" s="55">
+        <v>1.5</v>
+      </c>
       <c r="Q9" s="52"/>
       <c r="R9" s="53"/>
       <c r="S9" s="51"/>
@@ -2556,7 +2559,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="47">
         <v>4.5</v>
@@ -2610,7 +2613,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="25">
         <f>SUM(C12:C15)</f>
@@ -2653,7 +2656,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="47">
         <v>2</v>
@@ -2708,7 +2711,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="47">
         <v>0.7</v>
@@ -2854,7 +2857,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="25">
         <f>SUM(C17:C23)</f>
@@ -2897,7 +2900,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="47">
         <v>1.5</v>
@@ -2955,7 +2958,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="47">
         <v>2</v>
@@ -2975,7 +2978,7 @@
       <c r="L18" s="53"/>
       <c r="M18" s="52"/>
       <c r="N18" s="51"/>
-      <c r="O18" s="93">
+      <c r="O18" s="78">
         <v>3</v>
       </c>
       <c r="P18" s="61"/>
@@ -3010,7 +3013,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="47">
         <v>3.5</v>
@@ -3031,7 +3034,9 @@
       <c r="O19" s="51">
         <v>1</v>
       </c>
-      <c r="P19" s="55"/>
+      <c r="P19" s="55">
+        <v>3</v>
+      </c>
       <c r="Q19" s="52"/>
       <c r="R19" s="53"/>
       <c r="S19" s="51"/>
@@ -3063,7 +3068,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="47">
         <v>3</v>
@@ -3086,7 +3091,9 @@
       <c r="O20" s="51">
         <v>3</v>
       </c>
-      <c r="P20" s="55"/>
+      <c r="P20" s="55">
+        <v>1.5</v>
+      </c>
       <c r="Q20" s="52"/>
       <c r="R20" s="53"/>
       <c r="S20" s="55"/>
@@ -3118,7 +3125,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="47">
         <v>3</v>
@@ -3169,7 +3176,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="47">
         <v>2.5</v>
@@ -3220,7 +3227,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="47">
         <v>1</v>
@@ -3240,7 +3247,7 @@
       <c r="K23" s="54"/>
       <c r="L23" s="53"/>
       <c r="M23" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N23" s="51"/>
       <c r="O23" s="51"/>
@@ -3276,7 +3283,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="25">
         <f>SUM(C25:C27)</f>
@@ -3319,7 +3326,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="47" t="str">
@@ -3371,7 +3378,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="47">
         <v>2</v>
@@ -3425,7 +3432,7 @@
         <v>42</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="47" t="str">
@@ -3477,7 +3484,7 @@
         <v>50</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="25">
         <f>SUM(C29:C30)</f>
@@ -3520,7 +3527,7 @@
         <v>51</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -3537,7 +3544,9 @@
       <c r="M29" s="52"/>
       <c r="N29" s="51"/>
       <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
+      <c r="P29" s="51">
+        <v>0.5</v>
+      </c>
       <c r="Q29" s="52"/>
       <c r="R29" s="53"/>
       <c r="S29" s="51"/>
@@ -3617,7 +3626,7 @@
         <v>60</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" s="25">
         <f>SUM(C32:C33)</f>
@@ -3660,7 +3669,7 @@
         <v>61</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47" t="str">
@@ -3712,7 +3721,7 @@
         <v>62</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="47" t="str">
@@ -3742,8 +3751,8 @@
       <c r="W33" s="53"/>
       <c r="X33" s="51"/>
       <c r="Y33" s="47"/>
-      <c r="Z33" s="90" t="s">
-        <v>51</v>
+      <c r="Z33" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="AA33" s="52"/>
       <c r="AB33" s="53"/>
@@ -3764,7 +3773,7 @@
     <row r="34" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="25">
         <f>SUM(C5+C11+C16+C24+C28+C31)</f>
@@ -3772,7 +3781,7 @@
       </c>
       <c r="D34" s="25">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>16.8</v>
+        <v>18.8</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
@@ -3802,7 +3811,7 @@
       </c>
       <c r="P34" s="65">
         <f t="shared" ref="P34:Y34" si="2">SUM(P5:P33)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q34" s="65">
         <f t="shared" si="2"/>
@@ -3864,15 +3873,15 @@
     </row>
     <row r="35" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
       <c r="K35" s="24"/>
       <c r="AF35" s="28"/>
       <c r="AG35" s="28"/>
@@ -3888,7 +3897,7 @@
     <row r="36" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
@@ -3899,33 +3908,33 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81"/>
-      <c r="S36" s="81"/>
-      <c r="T36" s="81"/>
-      <c r="U36" s="81"/>
-      <c r="V36" s="81"/>
-      <c r="W36" s="81"/>
-      <c r="X36" s="81"/>
-      <c r="Y36" s="81"/>
-      <c r="Z36" s="81"/>
-      <c r="AA36" s="81"/>
-      <c r="AB36" s="81"/>
-      <c r="AC36" s="81"/>
-      <c r="AD36" s="81"/>
-      <c r="AE36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="82"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="82"/>
+      <c r="AA36" s="82"/>
+      <c r="AB36" s="82"/>
+      <c r="AC36" s="82"/>
+      <c r="AD36" s="82"/>
+      <c r="AE36" s="82"/>
     </row>
     <row r="37" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="91" t="s">
-        <v>51</v>
+      <c r="A37" s="76" t="s">
+        <v>50</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -3936,31 +3945,31 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="79"/>
-      <c r="V37" s="79"/>
-      <c r="W37" s="79"/>
-      <c r="X37" s="79"/>
-      <c r="Y37" s="79"/>
-      <c r="Z37" s="79"/>
-      <c r="AA37" s="79"/>
-      <c r="AB37" s="79"/>
-      <c r="AC37" s="79"/>
-      <c r="AD37" s="79"/>
-      <c r="AE37" s="79"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="80"/>
+      <c r="R37" s="80"/>
+      <c r="S37" s="80"/>
+      <c r="T37" s="80"/>
+      <c r="U37" s="80"/>
+      <c r="V37" s="80"/>
+      <c r="W37" s="80"/>
+      <c r="X37" s="80"/>
+      <c r="Y37" s="80"/>
+      <c r="Z37" s="80"/>
+      <c r="AA37" s="80"/>
+      <c r="AB37" s="80"/>
+      <c r="AC37" s="80"/>
+      <c r="AD37" s="80"/>
+      <c r="AE37" s="80"/>
     </row>
     <row r="38" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="92"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -3971,26 +3980,26 @@
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
-      <c r="W38" s="79"/>
-      <c r="X38" s="79"/>
-      <c r="Y38" s="79"/>
-      <c r="Z38" s="79"/>
-      <c r="AA38" s="79"/>
-      <c r="AB38" s="79"/>
-      <c r="AC38" s="79"/>
-      <c r="AD38" s="79"/>
-      <c r="AE38" s="79"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="80"/>
+      <c r="Q38" s="80"/>
+      <c r="R38" s="80"/>
+      <c r="S38" s="80"/>
+      <c r="T38" s="80"/>
+      <c r="U38" s="80"/>
+      <c r="V38" s="80"/>
+      <c r="W38" s="80"/>
+      <c r="X38" s="80"/>
+      <c r="Y38" s="80"/>
+      <c r="Z38" s="80"/>
+      <c r="AA38" s="80"/>
+      <c r="AB38" s="80"/>
+      <c r="AC38" s="80"/>
+      <c r="AD38" s="80"/>
+      <c r="AE38" s="80"/>
     </row>
     <row r="39" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
@@ -4021,17 +4030,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AF3:AJ3"/>
-    <mergeCell ref="AK3:AO3"/>
-    <mergeCell ref="L37:AE38"/>
-    <mergeCell ref="L36:AE36"/>
-    <mergeCell ref="B35:J35"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="V3:Z3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="AF3:AJ3"/>
+    <mergeCell ref="AK3:AO3"/>
+    <mergeCell ref="L37:AE38"/>
+    <mergeCell ref="L36:AE36"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4064,20 +4073,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
@@ -4097,10 +4106,10 @@
     </row>
     <row r="3" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4150,7 +4159,7 @@
       </c>
       <c r="B8" s="18">
         <f>Zeitplanung!P34</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4406,36 +4415,36 @@
     <row r="34" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="86" t="s">
+      <c r="A36" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="91"/>
+      <c r="C36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="87"/>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="84"/>
+      <c r="A37" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="88"/>
       <c r="C37" s="18">
         <f>Zeitplanung!C5</f>
         <v>14.3</v>
       </c>
       <c r="D37" s="18">
         <f>Zeitplanung!D5</f>
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="89"/>
+      <c r="A38" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="93"/>
       <c r="C38" s="18">
         <f>Zeitplanung!C11</f>
         <v>2.7</v>
@@ -4446,10 +4455,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="84"/>
+      <c r="A39" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="88"/>
       <c r="C39" s="18">
         <f>Zeitplanung!C16</f>
         <v>16.5</v>
@@ -4460,10 +4469,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="89"/>
+      <c r="A40" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="93"/>
       <c r="C40" s="18">
         <f>Zeitplanung!C24</f>
         <v>2</v>
@@ -4474,10 +4483,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="84"/>
+      <c r="A41" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="88"/>
       <c r="C41" s="18">
         <f>Zeitplanung!C28</f>
         <v>0</v>
@@ -4488,10 +4497,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="84"/>
+      <c r="A42" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="88"/>
       <c r="C42" s="18">
         <f>Zeitplanung!C31</f>
         <v>0</v>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$N$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$AE$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$AE$40</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Nr.</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Sitzungen</t>
   </si>
   <si>
-    <t>Testfälle schreiben</t>
-  </si>
-  <si>
     <t>Thema</t>
   </si>
   <si>
@@ -315,10 +312,10 @@
     <t>!</t>
   </si>
   <si>
-    <t>Notlösung!</t>
-  </si>
-  <si>
     <t>Über childthemes nachgeschlagen</t>
+  </si>
+  <si>
+    <t>Problem / Notlösung!</t>
   </si>
 </sst>
 </file>
@@ -973,6 +970,15 @@
     <xf numFmtId="0" fontId="25" fillId="12" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -985,15 +991,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1108,91 +1105,91 @@
                   <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43081</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43082</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43083</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43084</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43087</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43088</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43089</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43090</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43091</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43108</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43109</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43110</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43111</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43112</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43115</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43116</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43117</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43118</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,7 +1210,7 @@
                   <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7</c:v>
@@ -1225,10 +1222,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1433,19 +1430,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14.3</c:v>
+                  <c:v>16.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.5</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1507,19 +1504,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2026,10 +2023,10 @@
   <sheetPr codeName="Tabelle1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="Z17" sqref="Z17:Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2047,39 +2044,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
+      <c r="A1" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
       <c r="AF1" s="29"/>
       <c r="AG1" s="29"/>
       <c r="AH1" s="29"/>
@@ -2137,10 +2134,10 @@
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="85"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -2148,44 +2145,44 @@
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
-      <c r="L3" s="85" t="s">
+      <c r="L3" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85" t="s">
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85" t="s">
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="79"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="79"/>
-      <c r="AJ3" s="79"/>
-      <c r="AK3" s="79"/>
-      <c r="AL3" s="79"/>
-      <c r="AM3" s="79"/>
-      <c r="AN3" s="79"/>
-      <c r="AO3" s="79"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="82"/>
+      <c r="AM3" s="82"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
     </row>
     <row r="4" spans="1:41" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
@@ -2202,13 +2199,13 @@
         <v>4</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="42" t="s">
         <v>17</v>
@@ -2293,15 +2290,15 @@
         <v>10</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="25">
         <f>SUM(C6:C10)</f>
-        <v>14.3</v>
+        <v>16.3</v>
       </c>
       <c r="D5" s="25">
         <f>SUM(D6:D10)</f>
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
@@ -2342,6 +2339,7 @@
         <v>0.8</v>
       </c>
       <c r="D6" s="47">
+        <f>IF(SUM(K6:AE6)=0," ",SUM(K6:AE6))</f>
         <v>1</v>
       </c>
       <c r="E6" s="47">
@@ -2391,12 +2389,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="47">
         <v>3.5</v>
       </c>
       <c r="D7" s="47">
+        <f t="shared" ref="D7:D32" si="0">IF(SUM(K7:AE7)=0," ",SUM(K7:AE7))</f>
         <v>3.5</v>
       </c>
       <c r="E7" s="47">
@@ -2448,12 +2447,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="47">
         <v>4</v>
       </c>
       <c r="D8" s="47">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E8" s="47">
@@ -2506,10 +2506,10 @@
         <v>19</v>
       </c>
       <c r="C9" s="47">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="D9" s="47">
-        <f t="shared" ref="D8:D10" si="0">IF(SUM(L9:AE9)=0," ",SUM(L9:AE9))</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E9" s="47">
@@ -2559,14 +2559,14 @@
         <v>15</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="47">
         <v>4.5</v>
       </c>
-      <c r="D10" s="47" t="str">
+      <c r="D10" s="47">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>5</v>
       </c>
       <c r="E10" s="47">
         <v>1</v>
@@ -2584,8 +2584,12 @@
       <c r="P10" s="56"/>
       <c r="Q10" s="52"/>
       <c r="R10" s="53"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
+      <c r="S10" s="56">
+        <v>2</v>
+      </c>
+      <c r="T10" s="57">
+        <v>3</v>
+      </c>
       <c r="U10" s="56"/>
       <c r="V10" s="52"/>
       <c r="W10" s="53"/>
@@ -2619,7 +2623,7 @@
         <f>SUM(C12:C15)</f>
         <v>2.7</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="45">
         <f>SUM(D12:D15)</f>
         <v>4</v>
       </c>
@@ -2656,12 +2660,13 @@
         <v>21</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="47">
         <v>2</v>
       </c>
       <c r="D12" s="47">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E12" s="47">
@@ -2711,12 +2716,13 @@
         <v>22</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="47">
         <v>0.7</v>
       </c>
       <c r="D13" s="47">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" s="47"/>
@@ -2765,7 +2771,10 @@
       </c>
       <c r="B14" s="46"/>
       <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
+      <c r="D14" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
@@ -2811,7 +2820,7 @@
       <c r="B15" s="46"/>
       <c r="C15" s="47"/>
       <c r="D15" s="47" t="str">
-        <f t="shared" ref="D15" si="1">IF(SUM(L15:AE15)=0," ",SUM(L15:AE15))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E15" s="47"/>
@@ -2861,11 +2870,11 @@
       </c>
       <c r="C16" s="25">
         <f>SUM(C17:C23)</f>
-        <v>16.5</v>
-      </c>
-      <c r="D16" s="25">
+        <v>19.5</v>
+      </c>
+      <c r="D16" s="45">
         <f>SUM(D17:D23)</f>
-        <v>8.3000000000000007</v>
+        <v>19</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="25"/>
@@ -2900,13 +2909,13 @@
         <v>31</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="47">
         <v>1.5</v>
       </c>
       <c r="D17" s="47">
-        <f>IF(SUM(L17:AE17)=0," ",SUM(L17:AE17))</f>
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="E17" s="47">
@@ -2958,13 +2967,14 @@
         <v>32</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="47">
         <v>2</v>
       </c>
       <c r="D18" s="47">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E18" s="47">
         <v>1</v>
@@ -3013,12 +3023,15 @@
         <v>33</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="47">
         <v>3.5</v>
       </c>
-      <c r="D19" s="47"/>
+      <c r="D19" s="47">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="E19" s="47">
         <v>1</v>
       </c>
@@ -3068,13 +3081,14 @@
         <v>34</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="47">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D20" s="47">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>5.5</v>
       </c>
       <c r="E20" s="47">
         <v>1</v>
@@ -3089,14 +3103,16 @@
       <c r="M20" s="52"/>
       <c r="N20" s="51"/>
       <c r="O20" s="51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P20" s="55">
         <v>1.5</v>
       </c>
       <c r="Q20" s="52"/>
       <c r="R20" s="53"/>
-      <c r="S20" s="55"/>
+      <c r="S20" s="55">
+        <v>1.5</v>
+      </c>
       <c r="T20" s="47"/>
       <c r="U20" s="56"/>
       <c r="V20" s="52"/>
@@ -3125,12 +3141,15 @@
         <v>35</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="47">
         <v>3</v>
       </c>
-      <c r="D21" s="47"/>
+      <c r="D21" s="47">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
       <c r="E21" s="47">
         <v>1</v>
       </c>
@@ -3147,8 +3166,12 @@
       <c r="P21" s="51"/>
       <c r="Q21" s="52"/>
       <c r="R21" s="53"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="49"/>
+      <c r="S21" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="T21" s="49">
+        <v>1.2</v>
+      </c>
       <c r="U21" s="51"/>
       <c r="V21" s="52"/>
       <c r="W21" s="53"/>
@@ -3176,12 +3199,15 @@
         <v>36</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="47">
         <v>2.5</v>
       </c>
-      <c r="D22" s="47"/>
+      <c r="D22" s="47">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="E22" s="47">
         <v>1</v>
       </c>
@@ -3198,8 +3224,12 @@
       <c r="P22" s="51"/>
       <c r="Q22" s="52"/>
       <c r="R22" s="53"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="49"/>
+      <c r="S22" s="51">
+        <v>2.5</v>
+      </c>
+      <c r="T22" s="49">
+        <v>0.5</v>
+      </c>
       <c r="U22" s="51"/>
       <c r="V22" s="52"/>
       <c r="W22" s="53"/>
@@ -3227,14 +3257,14 @@
         <v>37</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="47">
-        <v>1</v>
-      </c>
-      <c r="D23" s="47" t="str">
-        <f>IF(SUM(L23:AE23)=0," ",SUM(L23:AE23))</f>
-        <v xml:space="preserve"> </v>
+        <v>2.5</v>
+      </c>
+      <c r="D23" s="47">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="E23" s="47">
         <v>1</v>
@@ -3247,14 +3277,16 @@
       <c r="K23" s="54"/>
       <c r="L23" s="53"/>
       <c r="M23" s="52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N23" s="51"/>
       <c r="O23" s="51"/>
       <c r="P23" s="51"/>
       <c r="Q23" s="52"/>
       <c r="R23" s="53"/>
-      <c r="S23" s="51"/>
+      <c r="S23" s="51">
+        <v>0.5</v>
+      </c>
       <c r="T23" s="47"/>
       <c r="U23" s="55"/>
       <c r="V23" s="52"/>
@@ -3286,11 +3318,11 @@
         <v>7</v>
       </c>
       <c r="C24" s="25">
-        <f>SUM(C25:C27)</f>
-        <v>2</v>
-      </c>
-      <c r="D24" s="25">
-        <f>SUM(D25:D27)</f>
+        <f>SUM(C25:C26)</f>
+        <v>5</v>
+      </c>
+      <c r="D24" s="45">
+        <f>SUM(D25:D26)</f>
         <v>0</v>
       </c>
       <c r="E24" s="15"/>
@@ -3323,14 +3355,16 @@
     </row>
     <row r="25" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="47"/>
+        <v>45</v>
+      </c>
+      <c r="C25" s="47">
+        <v>2</v>
+      </c>
       <c r="D25" s="47" t="str">
-        <f>IF(SUM(L25:AE25)=0," ",SUM(L25:AE25))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E25" s="47">
@@ -3351,12 +3385,12 @@
       <c r="R25" s="53"/>
       <c r="S25" s="51"/>
       <c r="T25" s="47"/>
-      <c r="U25" s="51"/>
+      <c r="U25" s="55"/>
       <c r="V25" s="52"/>
       <c r="W25" s="53"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="51"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="56"/>
       <c r="AA25" s="52"/>
       <c r="AB25" s="53"/>
       <c r="AC25" s="51"/>
@@ -3375,16 +3409,16 @@
     </row>
     <row r="26" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C26" s="47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="47" t="str">
-        <f>IF(SUM(L26:AE26)=0," ",SUM(L26:AE26))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E26" s="47">
@@ -3405,12 +3439,12 @@
       <c r="R26" s="53"/>
       <c r="S26" s="51"/>
       <c r="T26" s="47"/>
-      <c r="U26" s="55"/>
+      <c r="U26" s="51"/>
       <c r="V26" s="52"/>
       <c r="W26" s="53"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="56"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="51"/>
       <c r="AA26" s="52"/>
       <c r="AB26" s="53"/>
       <c r="AC26" s="51"/>
@@ -3428,125 +3462,125 @@
       <c r="AO26" s="27"/>
     </row>
     <row r="27" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
-        <v>42</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47" t="str">
-        <f>IF(SUM(L27:AE27)=0," ",SUM(L27:AE27))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E27" s="47">
+      <c r="A27" s="45">
+        <v>50</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="25">
+        <f>SUM(C28:C29)</f>
         <v>1</v>
       </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="69"/>
+      <c r="D27" s="45">
+        <f>SUM(D28:D29)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="26"/>
       <c r="AE27" s="72"/>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="27"/>
-      <c r="AH27" s="27"/>
-      <c r="AI27" s="27"/>
-      <c r="AJ27" s="27"/>
-      <c r="AK27" s="27"/>
-      <c r="AL27" s="27"/>
-      <c r="AM27" s="27"/>
-      <c r="AN27" s="27"/>
-      <c r="AO27" s="27"/>
     </row>
     <row r="28" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45">
+      <c r="A28" s="36">
+        <v>51</v>
+      </c>
+      <c r="B28" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="25">
-        <f>SUM(C29:C30)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="25">
-        <f>SUM(D29:D30)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="26"/>
+      <c r="C28" s="47">
+        <v>1</v>
+      </c>
+      <c r="D28" s="47">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="47">
+        <v>3</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="69"/>
       <c r="AE28" s="72"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="27"/>
+      <c r="AN28" s="27"/>
+      <c r="AO28" s="27"/>
     </row>
     <row r="29" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
-        <v>51</v>
-      </c>
-      <c r="B29" s="59" t="s">
         <v>52</v>
       </c>
+      <c r="B29" s="59"/>
       <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47">
-        <v>3</v>
-      </c>
+      <c r="D29" s="47">
+        <v>1</v>
+      </c>
+      <c r="E29" s="47"/>
       <c r="F29" s="47"/>
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
       <c r="I29" s="48"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
       <c r="L29" s="53"/>
       <c r="M29" s="52"/>
       <c r="N29" s="51"/>
       <c r="O29" s="51"/>
-      <c r="P29" s="51">
-        <v>0.5</v>
-      </c>
+      <c r="P29" s="51"/>
       <c r="Q29" s="52"/>
       <c r="R29" s="53"/>
       <c r="S29" s="51"/>
@@ -3574,110 +3608,114 @@
       <c r="AO29" s="27"/>
     </row>
     <row r="30" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36">
-        <v>52</v>
-      </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47" t="str">
-        <f>IF(SUM(L30:AE30)=0," ",SUM(L30:AE30))</f>
+      <c r="A30" s="45">
+        <v>60</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="25">
+        <f>SUM(C31:C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="45">
+        <f>SUM(D31:D32)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="72"/>
+    </row>
+    <row r="31" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="36">
+        <v>61</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="53"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="72"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="27"/>
-      <c r="AH30" s="27"/>
-      <c r="AI30" s="27"/>
-      <c r="AJ30" s="27"/>
-      <c r="AK30" s="27"/>
-      <c r="AL30" s="27"/>
-      <c r="AM30" s="27"/>
-      <c r="AN30" s="27"/>
-      <c r="AO30" s="27"/>
-    </row>
-    <row r="31" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45">
-        <v>60</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="25">
-        <f>SUM(C32:C33)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="25">
-        <f>SUM(D32:D33)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
-      <c r="AD31" s="26"/>
+      <c r="E31" s="47">
+        <v>2</v>
+      </c>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="69"/>
       <c r="AE31" s="72"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="27"/>
+      <c r="AN31" s="27"/>
+      <c r="AO31" s="27"/>
     </row>
     <row r="32" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47" t="str">
-        <f>IF(SUM(L32:AE32)=0," ",SUM(L32:AE32))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E32" s="47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="47"/>
       <c r="G32" s="47"/>
@@ -3699,10 +3737,12 @@
       <c r="W32" s="53"/>
       <c r="X32" s="51"/>
       <c r="Y32" s="47"/>
-      <c r="Z32" s="51"/>
+      <c r="Z32" s="75" t="s">
+        <v>49</v>
+      </c>
       <c r="AA32" s="52"/>
       <c r="AB32" s="53"/>
-      <c r="AC32" s="56"/>
+      <c r="AC32" s="61"/>
       <c r="AD32" s="69"/>
       <c r="AE32" s="72"/>
       <c r="AF32" s="27"/>
@@ -3717,224 +3757,205 @@
       <c r="AO32" s="27"/>
     </row>
     <row r="33" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
-        <v>62</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47" t="str">
-        <f>IF(SUM(L33:AE33)=0," ",SUM(L33:AE33))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E33" s="47">
+      <c r="A33" s="45"/>
+      <c r="B33" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="25">
+        <f>SUM(C5+C11+C16+C24+C27+C30)</f>
+        <v>44.5</v>
+      </c>
+      <c r="D33" s="25">
+        <f>SUM(D30+D27+D24+D16+D11+D5)</f>
+        <v>36</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="64">
+        <f>SUM(K6:K32)</f>
         <v>1</v>
       </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="47"/>
-      <c r="Z33" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="53"/>
-      <c r="AC33" s="61"/>
-      <c r="AD33" s="69"/>
-      <c r="AE33" s="72"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="27"/>
-      <c r="AH33" s="27"/>
-      <c r="AI33" s="27"/>
-      <c r="AJ33" s="27"/>
-      <c r="AK33" s="27"/>
-      <c r="AL33" s="27"/>
-      <c r="AM33" s="27"/>
-      <c r="AN33" s="27"/>
-      <c r="AO33" s="27"/>
-    </row>
-    <row r="34" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="25">
-        <f>SUM(C5+C11+C16+C24+C28+C31)</f>
-        <v>35.5</v>
-      </c>
-      <c r="D34" s="25">
-        <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>18.8</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="64">
-        <f>SUM(K6:K33)</f>
-        <v>1</v>
-      </c>
-      <c r="L34" s="65">
-        <f>SUM(L5:L33)</f>
+      <c r="L33" s="65">
+        <f>SUM(L5:L32)</f>
         <v>0</v>
       </c>
-      <c r="M34" s="25">
-        <f>SUM(M5:M33)</f>
+      <c r="M33" s="25">
+        <f>SUM(M5:M32)</f>
         <v>0</v>
       </c>
-      <c r="N34" s="65">
-        <f>SUM(N5:N33)</f>
+      <c r="N33" s="65">
+        <f>SUM(N5:N32)</f>
         <v>7.8</v>
       </c>
-      <c r="O34" s="65">
-        <f>SUM(O5:O33)</f>
-        <v>8</v>
-      </c>
-      <c r="P34" s="65">
-        <f t="shared" ref="P34:Y34" si="2">SUM(P5:P33)</f>
+      <c r="O33" s="65">
+        <f>SUM(O5:O32)</f>
+        <v>7.5</v>
+      </c>
+      <c r="P33" s="65">
+        <f t="shared" ref="P33:Y33" si="1">SUM(P5:P32)</f>
         <v>7</v>
       </c>
-      <c r="Q34" s="65">
-        <f t="shared" si="2"/>
+      <c r="Q33" s="65">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R34" s="25">
-        <f t="shared" si="2"/>
+      <c r="R33" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S34" s="65">
-        <f t="shared" si="2"/>
+      <c r="S33" s="65">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T33" s="25">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+      <c r="U33" s="65">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T34" s="25">
-        <f t="shared" si="2"/>
+      <c r="V33" s="65">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U34" s="65">
-        <f t="shared" si="2"/>
+      <c r="W33" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V34" s="65">
-        <f t="shared" si="2"/>
+      <c r="X33" s="65">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W34" s="25">
-        <f t="shared" si="2"/>
+      <c r="Y33" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X34" s="65">
-        <f t="shared" si="2"/>
+      <c r="Z33" s="65">
+        <f>SUM(Z5:Z32)</f>
         <v>0</v>
       </c>
-      <c r="Y34" s="25">
-        <f t="shared" si="2"/>
+      <c r="AA33" s="65">
+        <f>SUM(AA5:AA32)</f>
         <v>0</v>
       </c>
-      <c r="Z34" s="65">
-        <f>SUM(Z5:Z33)</f>
+      <c r="AB33" s="25">
+        <f>SUM(AB5:AB32)</f>
         <v>0</v>
       </c>
-      <c r="AA34" s="65">
-        <f>SUM(AA5:AA33)</f>
+      <c r="AC33" s="65">
+        <f>SUM(AC5:AC32)</f>
         <v>0</v>
       </c>
-      <c r="AB34" s="25">
-        <f>SUM(AB5:AB33)</f>
+      <c r="AD33" s="26">
+        <f>SUM(AD5:AD32)</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="65">
-        <f>SUM(AC5:AC33)</f>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="26">
-        <f>SUM(AD5:AD33)</f>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="73"/>
+      <c r="AE33" s="73"/>
+    </row>
+    <row r="34" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="24"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="28"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="28"/>
+      <c r="AL34" s="28"/>
+      <c r="AM34" s="28"/>
+      <c r="AN34" s="28"/>
+      <c r="AO34" s="28"/>
     </row>
     <row r="35" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="24"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="28"/>
-      <c r="AH35" s="28"/>
-      <c r="AI35" s="28"/>
-      <c r="AJ35" s="28"/>
-      <c r="AK35" s="28"/>
-      <c r="AL35" s="28"/>
-      <c r="AM35" s="28"/>
-      <c r="AN35" s="28"/>
-      <c r="AO35" s="28"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="85"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="85"/>
+      <c r="AA35" s="85"/>
+      <c r="AB35" s="85"/>
+      <c r="AC35" s="85"/>
+      <c r="AD35" s="85"/>
+      <c r="AE35" s="85"/>
     </row>
     <row r="36" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="82"/>
-      <c r="V36" s="82"/>
-      <c r="W36" s="82"/>
-      <c r="X36" s="82"/>
-      <c r="Y36" s="82"/>
-      <c r="Z36" s="82"/>
-      <c r="AA36" s="82"/>
-      <c r="AB36" s="82"/>
-      <c r="AC36" s="82"/>
-      <c r="AD36" s="82"/>
-      <c r="AE36" s="82"/>
+      <c r="A36" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="83"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
+      <c r="P36" s="83"/>
+      <c r="Q36" s="83"/>
+      <c r="R36" s="83"/>
+      <c r="S36" s="83"/>
+      <c r="T36" s="83"/>
+      <c r="U36" s="83"/>
+      <c r="V36" s="83"/>
+      <c r="W36" s="83"/>
+      <c r="X36" s="83"/>
+      <c r="Y36" s="83"/>
+      <c r="Z36" s="83"/>
+      <c r="AA36" s="83"/>
+      <c r="AB36" s="83"/>
+      <c r="AC36" s="83"/>
+      <c r="AD36" s="83"/>
+      <c r="AE36" s="83"/>
     </row>
     <row r="37" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="76" t="s">
-        <v>50</v>
-      </c>
+      <c r="A37" s="77"/>
       <c r="B37" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -3945,78 +3966,47 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="80"/>
-      <c r="Q37" s="80"/>
-      <c r="R37" s="80"/>
-      <c r="S37" s="80"/>
-      <c r="T37" s="80"/>
-      <c r="U37" s="80"/>
-      <c r="V37" s="80"/>
-      <c r="W37" s="80"/>
-      <c r="X37" s="80"/>
-      <c r="Y37" s="80"/>
-      <c r="Z37" s="80"/>
-      <c r="AA37" s="80"/>
-      <c r="AB37" s="80"/>
-      <c r="AC37" s="80"/>
-      <c r="AD37" s="80"/>
-      <c r="AE37" s="80"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="83"/>
+      <c r="P37" s="83"/>
+      <c r="Q37" s="83"/>
+      <c r="R37" s="83"/>
+      <c r="S37" s="83"/>
+      <c r="T37" s="83"/>
+      <c r="U37" s="83"/>
+      <c r="V37" s="83"/>
+      <c r="W37" s="83"/>
+      <c r="X37" s="83"/>
+      <c r="Y37" s="83"/>
+      <c r="Z37" s="83"/>
+      <c r="AA37" s="83"/>
+      <c r="AB37" s="83"/>
+      <c r="AC37" s="83"/>
+      <c r="AD37" s="83"/>
+      <c r="AE37" s="83"/>
     </row>
     <row r="38" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
-      <c r="B38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="80"/>
-      <c r="P38" s="80"/>
-      <c r="Q38" s="80"/>
-      <c r="R38" s="80"/>
-      <c r="S38" s="80"/>
-      <c r="T38" s="80"/>
-      <c r="U38" s="80"/>
-      <c r="V38" s="80"/>
-      <c r="W38" s="80"/>
-      <c r="X38" s="80"/>
-      <c r="Y38" s="80"/>
-      <c r="Z38" s="80"/>
-      <c r="AA38" s="80"/>
-      <c r="AB38" s="80"/>
-      <c r="AC38" s="80"/>
-      <c r="AD38" s="80"/>
-      <c r="AE38" s="80"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="9"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="9"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="9"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="11"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
@@ -4024,23 +4014,19 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AF3:AJ3"/>
+    <mergeCell ref="AK3:AO3"/>
+    <mergeCell ref="L36:AE37"/>
+    <mergeCell ref="L35:AE35"/>
+    <mergeCell ref="B34:J34"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="V3:Z3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="AF3:AJ3"/>
-    <mergeCell ref="AK3:AO3"/>
-    <mergeCell ref="L37:AE38"/>
-    <mergeCell ref="L36:AE36"/>
-    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4061,7 +4047,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="A4" sqref="A4:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4118,204 +4104,204 @@
         <v>43080</v>
       </c>
       <c r="B4" s="18">
-        <f>Zeitplanung!L34</f>
+        <f>Zeitplanung!L33</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
-        <f>Zeitplanung!M$4</f>
-        <v>43081</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B5" s="18">
-        <f>Zeitplanung!M34</f>
+        <f>Zeitplanung!M33</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
-        <f>Zeitplanung!N$4</f>
-        <v>43082</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B6" s="18">
-        <f>Zeitplanung!N34</f>
+        <f>Zeitplanung!N33</f>
         <v>7.8</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
-        <f>Zeitplanung!O$4</f>
-        <v>43083</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B7" s="18">
-        <f>Zeitplanung!O34</f>
-        <v>8</v>
+        <f>Zeitplanung!O33</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
-        <f>Zeitplanung!P$4</f>
-        <v>43084</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B8" s="18">
-        <f>Zeitplanung!P34</f>
+        <f>Zeitplanung!P33</f>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
-        <f>Zeitplanung!Q$4</f>
-        <v>43087</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B9" s="18">
-        <f>Zeitplanung!Q34</f>
+        <f>Zeitplanung!Q33</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
-        <f>Zeitplanung!R$4</f>
-        <v>43088</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B10" s="18">
-        <f>Zeitplanung!R34</f>
+        <f>Zeitplanung!R33</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
-        <f>Zeitplanung!S$4</f>
-        <v>43089</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B11" s="18">
-        <f>Zeitplanung!S34</f>
-        <v>0</v>
+        <f>Zeitplanung!S33</f>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
-        <f>Zeitplanung!T$4</f>
-        <v>43090</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B12" s="18">
-        <f>Zeitplanung!T34</f>
-        <v>0</v>
+        <f>Zeitplanung!T33</f>
+        <v>4.7</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
-        <f>Zeitplanung!U$4</f>
-        <v>43091</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B13" s="18">
-        <f>Zeitplanung!U34</f>
+        <f>Zeitplanung!U33</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
-        <f>Zeitplanung!V$4</f>
-        <v>43108</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B14" s="18">
-        <f>Zeitplanung!V34</f>
+        <f>Zeitplanung!V33</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
-        <f>Zeitplanung!W$4</f>
-        <v>43109</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B15" s="18">
-        <f>Zeitplanung!W34</f>
+        <f>Zeitplanung!W33</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
-        <f>Zeitplanung!X$4</f>
-        <v>43110</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B16" s="18">
-        <f>Zeitplanung!X34</f>
+        <f>Zeitplanung!X33</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
-        <f>Zeitplanung!Y$4</f>
-        <v>43111</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B17" s="18">
-        <f>Zeitplanung!Y34</f>
+        <f>Zeitplanung!Y33</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
-        <f>Zeitplanung!Z$4</f>
-        <v>43112</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B18" s="18">
-        <f>Zeitplanung!Z34</f>
+        <f>Zeitplanung!Z33</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
-        <f>Zeitplanung!AA$4</f>
-        <v>43115</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B19" s="18">
-        <f>Zeitplanung!AA34</f>
+        <f>Zeitplanung!AA33</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
-        <f>Zeitplanung!AB$4</f>
-        <v>43116</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B20" s="18">
-        <f>Zeitplanung!AB34</f>
+        <f>Zeitplanung!AB33</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
-        <f>Zeitplanung!AC$4</f>
-        <v>43117</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B21" s="18">
-        <f>Zeitplanung!AC34</f>
+        <f>Zeitplanung!AC33</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
-        <f>Zeitplanung!AD$4</f>
-        <v>43118</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B22" s="18">
-        <f>Zeitplanung!AD34</f>
+        <f>Zeitplanung!AD33</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
-        <f>Zeitplanung!AE$4</f>
-        <v>0</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B23" s="18">
-        <f>Zeitplanung!AE34</f>
+        <f>Zeitplanung!AE33</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
-        <f>Zeitplanung!AF$4</f>
-        <v>0</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B24" s="18" t="e">
         <f>Zeitplanung!#REF!</f>
@@ -4324,8 +4310,8 @@
     </row>
     <row r="25" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
-        <f>Zeitplanung!AG$4</f>
-        <v>0</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B25" s="18" t="e">
         <f>Zeitplanung!#REF!</f>
@@ -4334,8 +4320,8 @@
     </row>
     <row r="26" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
-        <f>Zeitplanung!AH$4</f>
-        <v>0</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B26" s="18" t="e">
         <f>Zeitplanung!#REF!</f>
@@ -4344,68 +4330,68 @@
     </row>
     <row r="27" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
-        <f>Zeitplanung!AI$4</f>
-        <v>0</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B27" s="18">
-        <f>Zeitplanung!O31</f>
+        <f>Zeitplanung!O30</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
-        <f>Zeitplanung!AJ$4</f>
-        <v>0</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B28" s="18">
-        <f>Zeitplanung!P31</f>
+        <f>Zeitplanung!P30</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
-        <f>Zeitplanung!AK$4</f>
-        <v>0</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B29" s="18">
-        <f>Zeitplanung!Q31</f>
+        <f>Zeitplanung!Q30</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
-        <f>Zeitplanung!AL$4</f>
-        <v>0</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B30" s="18">
-        <f>Zeitplanung!U31</f>
+        <f>Zeitplanung!U30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
-        <f>Zeitplanung!AM$4</f>
-        <v>0</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B31" s="18">
-        <f>Zeitplanung!S31</f>
+        <f>Zeitplanung!S30</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
-        <f>Zeitplanung!AN$4</f>
-        <v>0</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B32" s="18">
-        <f>Zeitplanung!T31</f>
+        <f>Zeitplanung!T30</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
-        <f>Zeitplanung!AO$4</f>
-        <v>0</v>
+        <f>Zeitplanung!L$4</f>
+        <v>43080</v>
       </c>
       <c r="B33" s="18" t="e">
         <f>Zeitplanung!#REF!</f>
@@ -4416,14 +4402,14 @@
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" s="91"/>
       <c r="C36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4433,11 +4419,11 @@
       <c r="B37" s="88"/>
       <c r="C37" s="18">
         <f>Zeitplanung!C5</f>
-        <v>14.3</v>
+        <v>16.3</v>
       </c>
       <c r="D37" s="18">
         <f>Zeitplanung!D5</f>
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4461,11 +4447,11 @@
       <c r="B39" s="88"/>
       <c r="C39" s="18">
         <f>Zeitplanung!C16</f>
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="D39" s="18">
         <f>Zeitplanung!D16</f>
-        <v>8.3000000000000007</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4475,7 +4461,7 @@
       <c r="B40" s="93"/>
       <c r="C40" s="18">
         <f>Zeitplanung!C24</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" s="18">
         <f>Zeitplanung!D24</f>
@@ -4488,12 +4474,12 @@
       </c>
       <c r="B41" s="88"/>
       <c r="C41" s="18">
-        <f>Zeitplanung!C28</f>
-        <v>0</v>
+        <f>Zeitplanung!C27</f>
+        <v>1</v>
       </c>
       <c r="D41" s="18">
-        <f>Zeitplanung!D28</f>
-        <v>0</v>
+        <f>Zeitplanung!D27</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4502,11 +4488,11 @@
       </c>
       <c r="B42" s="88"/>
       <c r="C42" s="18">
-        <f>Zeitplanung!C31</f>
+        <f>Zeitplanung!C30</f>
         <v>0</v>
       </c>
       <c r="D42" s="18">
-        <f>Zeitplanung!D31</f>
+        <f>Zeitplanung!D30</f>
         <v>0</v>
       </c>
     </row>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$N$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$AE$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$AF$40</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Nr.</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>Problem / Notlösung!</t>
+  </si>
+  <si>
+    <t>CSS3 Buch lesen</t>
   </si>
 </sst>
 </file>
@@ -750,7 +753,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -970,13 +973,7 @@
     <xf numFmtId="0" fontId="25" fillId="12" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -991,6 +988,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1225,10 +1231,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1442,7 +1448,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1504,16 +1510,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11.5</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.5</c:v>
@@ -2023,61 +2029,61 @@
   <sheetPr codeName="Tabelle1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AO43"/>
+  <dimension ref="A1:AP43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17:Z23"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="44.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="3.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="3.875" style="12" customWidth="1"/>
-    <col min="5" max="9" width="3.875" style="5" customWidth="1"/>
-    <col min="10" max="11" width="3.875" style="13" customWidth="1"/>
-    <col min="12" max="31" width="3.25" style="5" customWidth="1"/>
-    <col min="32" max="36" width="3.25" style="4" customWidth="1"/>
-    <col min="37" max="41" width="3.125" style="4" customWidth="1"/>
-    <col min="42" max="16384" width="12.5" style="5"/>
+    <col min="1" max="1" width="3.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="44.19921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="3.8984375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="3.8984375" style="12" customWidth="1"/>
+    <col min="5" max="9" width="3.8984375" style="5" customWidth="1"/>
+    <col min="10" max="11" width="3.8984375" style="13" customWidth="1"/>
+    <col min="12" max="32" width="3.19921875" style="5" customWidth="1"/>
+    <col min="33" max="37" width="3.19921875" style="4" customWidth="1"/>
+    <col min="38" max="42" width="3.09765625" style="4" customWidth="1"/>
+    <col min="43" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:42" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="29"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
       <c r="AG1" s="29"/>
       <c r="AH1" s="29"/>
       <c r="AI1" s="29"/>
@@ -2087,8 +2093,9 @@
       <c r="AM1" s="29"/>
       <c r="AN1" s="29"/>
       <c r="AO1" s="29"/>
-    </row>
-    <row r="2" spans="1:41" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP1" s="29"/>
+    </row>
+    <row r="2" spans="1:42" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -2119,8 +2126,8 @@
       <c r="AB2" s="29"/>
       <c r="AC2" s="29"/>
       <c r="AD2" s="29"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="66"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="67"/>
       <c r="AG2" s="66"/>
       <c r="AH2" s="66"/>
       <c r="AI2" s="66"/>
@@ -2130,14 +2137,15 @@
       <c r="AM2" s="66"/>
       <c r="AN2" s="66"/>
       <c r="AO2" s="66"/>
-    </row>
-    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP2" s="66"/>
+    </row>
+    <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="80"/>
+      <c r="D3" s="86"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -2145,46 +2153,47 @@
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
-      <c r="L3" s="80" t="s">
+      <c r="L3" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80" t="s">
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80" t="s">
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80" t="s">
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="82"/>
-      <c r="AM3" s="82"/>
-      <c r="AN3" s="82"/>
-      <c r="AO3" s="82"/>
-    </row>
-    <row r="4" spans="1:41" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+    </row>
+    <row r="4" spans="1:42" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>0</v>
       </c>
@@ -2246,35 +2255,35 @@
       <c r="U4" s="44">
         <v>43091</v>
       </c>
-      <c r="V4" s="44">
+      <c r="V4" s="44"/>
+      <c r="W4" s="44">
         <v>43108</v>
       </c>
-      <c r="W4" s="44">
+      <c r="X4" s="44">
         <v>43109</v>
       </c>
-      <c r="X4" s="44">
+      <c r="Y4" s="44">
         <v>43110</v>
       </c>
-      <c r="Y4" s="44">
+      <c r="Z4" s="44">
         <v>43111</v>
       </c>
-      <c r="Z4" s="44">
+      <c r="AA4" s="44">
         <v>43112</v>
       </c>
-      <c r="AA4" s="44">
+      <c r="AB4" s="44">
         <v>43115</v>
       </c>
-      <c r="AB4" s="44">
+      <c r="AC4" s="44">
         <v>43116</v>
       </c>
-      <c r="AC4" s="44">
+      <c r="AD4" s="44">
         <v>43117</v>
       </c>
-      <c r="AD4" s="44">
+      <c r="AE4" s="44">
         <v>43118</v>
       </c>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="27"/>
+      <c r="AF4" s="74"/>
       <c r="AG4" s="27"/>
       <c r="AH4" s="27"/>
       <c r="AI4" s="27"/>
@@ -2284,8 +2293,9 @@
       <c r="AM4" s="27"/>
       <c r="AN4" s="27"/>
       <c r="AO4" s="27"/>
-    </row>
-    <row r="5" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP4" s="27"/>
+    </row>
+    <row r="5" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45">
         <v>10</v>
       </c>
@@ -2298,7 +2308,7 @@
       </c>
       <c r="D5" s="25">
         <f>SUM(D6:D10)</f>
-        <v>11.5</v>
+        <v>12.25</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
@@ -2321,14 +2331,15 @@
       <c r="W5" s="30"/>
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
-      <c r="Z5" s="15"/>
+      <c r="Z5" s="30"/>
       <c r="AA5" s="15"/>
       <c r="AB5" s="15"/>
       <c r="AC5" s="15"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="71"/>
-    </row>
-    <row r="6" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="71"/>
+    </row>
+    <row r="6" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36">
         <v>11</v>
       </c>
@@ -2339,7 +2350,7 @@
         <v>0.8</v>
       </c>
       <c r="D6" s="47">
-        <f>IF(SUM(K6:AE6)=0," ",SUM(K6:AE6))</f>
+        <f>IF(SUM(K6:AF6)=0," ",SUM(K6:AF6))</f>
         <v>1</v>
       </c>
       <c r="E6" s="47">
@@ -2363,17 +2374,17 @@
       <c r="S6" s="51"/>
       <c r="T6" s="47"/>
       <c r="U6" s="51"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="27"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="72"/>
       <c r="AG6" s="27"/>
       <c r="AH6" s="27"/>
       <c r="AI6" s="27"/>
@@ -2383,8 +2394,9 @@
       <c r="AM6" s="27"/>
       <c r="AN6" s="27"/>
       <c r="AO6" s="27"/>
-    </row>
-    <row r="7" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP6" s="27"/>
+    </row>
+    <row r="7" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36">
         <v>12</v>
       </c>
@@ -2395,7 +2407,7 @@
         <v>3.5</v>
       </c>
       <c r="D7" s="47">
-        <f t="shared" ref="D7:D32" si="0">IF(SUM(K7:AE7)=0," ",SUM(K7:AE7))</f>
+        <f>IF(SUM(K7:AF7)=0," ",SUM(K7:AF7))</f>
         <v>3.5</v>
       </c>
       <c r="E7" s="47">
@@ -2421,17 +2433,17 @@
       <c r="S7" s="51"/>
       <c r="T7" s="47"/>
       <c r="U7" s="51"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="27"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="72"/>
       <c r="AG7" s="27"/>
       <c r="AH7" s="27"/>
       <c r="AI7" s="27"/>
@@ -2441,8 +2453,9 @@
       <c r="AM7" s="27"/>
       <c r="AN7" s="27"/>
       <c r="AO7" s="27"/>
-    </row>
-    <row r="8" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP7" s="27"/>
+    </row>
+    <row r="8" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36">
         <v>13</v>
       </c>
@@ -2453,8 +2466,8 @@
         <v>4</v>
       </c>
       <c r="D8" s="47">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>IF(SUM(K8:AF8)=0," ",SUM(K8:AF8))</f>
+        <v>1.25</v>
       </c>
       <c r="E8" s="47">
         <v>1</v>
@@ -2476,18 +2489,20 @@
       <c r="R8" s="53"/>
       <c r="S8" s="51"/>
       <c r="T8" s="47"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="27"/>
+      <c r="U8" s="55">
+        <v>0.75</v>
+      </c>
+      <c r="V8" s="56"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="72"/>
       <c r="AG8" s="27"/>
       <c r="AH8" s="27"/>
       <c r="AI8" s="27"/>
@@ -2497,8 +2512,9 @@
       <c r="AM8" s="27"/>
       <c r="AN8" s="27"/>
       <c r="AO8" s="27"/>
-    </row>
-    <row r="9" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP8" s="27"/>
+    </row>
+    <row r="9" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36">
         <v>14</v>
       </c>
@@ -2509,7 +2525,7 @@
         <v>3.5</v>
       </c>
       <c r="D9" s="47">
-        <f t="shared" si="0"/>
+        <f>IF(SUM(K9:AF9)=0," ",SUM(K9:AF9))</f>
         <v>1.5</v>
       </c>
       <c r="E9" s="47">
@@ -2533,17 +2549,17 @@
       <c r="S9" s="51"/>
       <c r="T9" s="47"/>
       <c r="U9" s="51"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="27"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="72"/>
       <c r="AG9" s="27"/>
       <c r="AH9" s="27"/>
       <c r="AI9" s="27"/>
@@ -2553,8 +2569,9 @@
       <c r="AM9" s="27"/>
       <c r="AN9" s="27"/>
       <c r="AO9" s="27"/>
-    </row>
-    <row r="10" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP9" s="27"/>
+    </row>
+    <row r="10" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36">
         <v>15</v>
       </c>
@@ -2565,7 +2582,7 @@
         <v>4.5</v>
       </c>
       <c r="D10" s="47">
-        <f t="shared" si="0"/>
+        <f>IF(SUM(K10:AF10)=0," ",SUM(K10:AF10))</f>
         <v>5</v>
       </c>
       <c r="E10" s="47">
@@ -2591,17 +2608,17 @@
         <v>3</v>
       </c>
       <c r="U10" s="56"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="70"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="27"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="70"/>
+      <c r="AF10" s="72"/>
       <c r="AG10" s="27"/>
       <c r="AH10" s="27"/>
       <c r="AI10" s="27"/>
@@ -2611,8 +2628,9 @@
       <c r="AM10" s="27"/>
       <c r="AN10" s="27"/>
       <c r="AO10" s="27"/>
-    </row>
-    <row r="11" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP10" s="27"/>
+    </row>
+    <row r="11" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45">
         <v>20</v>
       </c>
@@ -2652,10 +2670,11 @@
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
       <c r="AC11" s="25"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="72"/>
-    </row>
-    <row r="12" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="72"/>
+    </row>
+    <row r="12" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36">
         <v>21</v>
       </c>
@@ -2666,7 +2685,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="47">
-        <f t="shared" si="0"/>
+        <f>IF(SUM(K12:AF12)=0," ",SUM(K12:AF12))</f>
         <v>3</v>
       </c>
       <c r="E12" s="47">
@@ -2690,17 +2709,17 @@
       <c r="S12" s="51"/>
       <c r="T12" s="47"/>
       <c r="U12" s="47"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="51"/>
       <c r="Z12" s="47"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="27"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="72"/>
       <c r="AG12" s="27"/>
       <c r="AH12" s="27"/>
       <c r="AI12" s="27"/>
@@ -2710,8 +2729,9 @@
       <c r="AM12" s="27"/>
       <c r="AN12" s="27"/>
       <c r="AO12" s="27"/>
-    </row>
-    <row r="13" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP12" s="27"/>
+    </row>
+    <row r="13" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36">
         <v>22</v>
       </c>
@@ -2722,7 +2742,7 @@
         <v>0.7</v>
       </c>
       <c r="D13" s="47">
-        <f t="shared" si="0"/>
+        <f>IF(SUM(K13:AF13)=0," ",SUM(K13:AF13))</f>
         <v>1</v>
       </c>
       <c r="E13" s="47"/>
@@ -2744,17 +2764,17 @@
       <c r="S13" s="51"/>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="51"/>
       <c r="Z13" s="47"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="27"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="69"/>
+      <c r="AF13" s="72"/>
       <c r="AG13" s="27"/>
       <c r="AH13" s="27"/>
       <c r="AI13" s="27"/>
@@ -2764,15 +2784,16 @@
       <c r="AM13" s="27"/>
       <c r="AN13" s="27"/>
       <c r="AO13" s="27"/>
-    </row>
-    <row r="14" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP13" s="27"/>
+    </row>
+    <row r="14" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36">
         <v>23</v>
       </c>
       <c r="B14" s="46"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(SUM(K14:AF14)=0," ",SUM(K14:AF14))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E14" s="47"/>
@@ -2792,17 +2813,17 @@
       <c r="S14" s="51"/>
       <c r="T14" s="47"/>
       <c r="U14" s="47"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="51"/>
       <c r="Z14" s="47"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="27"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="72"/>
       <c r="AG14" s="27"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="27"/>
@@ -2812,15 +2833,16 @@
       <c r="AM14" s="27"/>
       <c r="AN14" s="27"/>
       <c r="AO14" s="27"/>
-    </row>
-    <row r="15" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP14" s="27"/>
+    </row>
+    <row r="15" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36">
         <v>24</v>
       </c>
       <c r="B15" s="46"/>
       <c r="C15" s="47"/>
       <c r="D15" s="47" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(SUM(K15:AF15)=0," ",SUM(K15:AF15))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E15" s="47"/>
@@ -2840,17 +2862,17 @@
       <c r="S15" s="51"/>
       <c r="T15" s="47"/>
       <c r="U15" s="47"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="51"/>
       <c r="Z15" s="47"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="27"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="72"/>
       <c r="AG15" s="27"/>
       <c r="AH15" s="27"/>
       <c r="AI15" s="27"/>
@@ -2860,8 +2882,9 @@
       <c r="AM15" s="27"/>
       <c r="AN15" s="27"/>
       <c r="AO15" s="27"/>
-    </row>
-    <row r="16" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP15" s="27"/>
+    </row>
+    <row r="16" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45">
         <v>30</v>
       </c>
@@ -2874,7 +2897,7 @@
       </c>
       <c r="D16" s="45">
         <f>SUM(D17:D23)</f>
-        <v>19</v>
+        <v>23.5</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="25"/>
@@ -2901,10 +2924,11 @@
       <c r="AA16" s="25"/>
       <c r="AB16" s="25"/>
       <c r="AC16" s="25"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="72"/>
-    </row>
-    <row r="17" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="72"/>
+    </row>
+    <row r="17" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36">
         <v>31</v>
       </c>
@@ -2915,7 +2939,7 @@
         <v>1.5</v>
       </c>
       <c r="D17" s="47">
-        <f t="shared" si="0"/>
+        <f>IF(SUM(K17:AF17)=0," ",SUM(K17:AF17))</f>
         <v>1.3</v>
       </c>
       <c r="E17" s="47">
@@ -2941,17 +2965,17 @@
       <c r="S17" s="51"/>
       <c r="T17" s="47"/>
       <c r="U17" s="51"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="51"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="27"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="72"/>
       <c r="AG17" s="27"/>
       <c r="AH17" s="27"/>
       <c r="AI17" s="27"/>
@@ -2961,8 +2985,9 @@
       <c r="AM17" s="27"/>
       <c r="AN17" s="27"/>
       <c r="AO17" s="27"/>
-    </row>
-    <row r="18" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP17" s="27"/>
+    </row>
+    <row r="18" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36">
         <v>32</v>
       </c>
@@ -2973,7 +2998,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="47">
-        <f t="shared" si="0"/>
+        <f>IF(SUM(K18:AF18)=0," ",SUM(K18:AF18))</f>
         <v>3</v>
       </c>
       <c r="E18" s="47">
@@ -2997,17 +3022,17 @@
       <c r="S18" s="56"/>
       <c r="T18" s="47"/>
       <c r="U18" s="51"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="53"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="27"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="72"/>
       <c r="AG18" s="27"/>
       <c r="AH18" s="27"/>
       <c r="AI18" s="27"/>
@@ -3017,8 +3042,9 @@
       <c r="AM18" s="27"/>
       <c r="AN18" s="27"/>
       <c r="AO18" s="27"/>
-    </row>
-    <row r="19" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP18" s="27"/>
+    </row>
+    <row r="19" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36">
         <v>33</v>
       </c>
@@ -3029,7 +3055,7 @@
         <v>3.5</v>
       </c>
       <c r="D19" s="47">
-        <f t="shared" si="0"/>
+        <f>IF(SUM(K19:AF19)=0," ",SUM(K19:AF19))</f>
         <v>4</v>
       </c>
       <c r="E19" s="47">
@@ -3055,17 +3081,17 @@
       <c r="S19" s="51"/>
       <c r="T19" s="57"/>
       <c r="U19" s="56"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="72"/>
-      <c r="AF19" s="27"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="69"/>
+      <c r="AF19" s="72"/>
       <c r="AG19" s="27"/>
       <c r="AH19" s="27"/>
       <c r="AI19" s="27"/>
@@ -3075,8 +3101,9 @@
       <c r="AM19" s="27"/>
       <c r="AN19" s="27"/>
       <c r="AO19" s="27"/>
-    </row>
-    <row r="20" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP19" s="27"/>
+    </row>
+    <row r="20" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36">
         <v>34</v>
       </c>
@@ -3087,7 +3114,7 @@
         <v>4.5</v>
       </c>
       <c r="D20" s="47">
-        <f t="shared" si="0"/>
+        <f>IF(SUM(K20:AF20)=0," ",SUM(K20:AF20))</f>
         <v>5.5</v>
       </c>
       <c r="E20" s="47">
@@ -3115,17 +3142,17 @@
       </c>
       <c r="T20" s="47"/>
       <c r="U20" s="56"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="27"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="69"/>
+      <c r="AF20" s="72"/>
       <c r="AG20" s="27"/>
       <c r="AH20" s="27"/>
       <c r="AI20" s="27"/>
@@ -3135,8 +3162,9 @@
       <c r="AM20" s="27"/>
       <c r="AN20" s="27"/>
       <c r="AO20" s="27"/>
-    </row>
-    <row r="21" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP20" s="27"/>
+    </row>
+    <row r="21" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36">
         <v>35</v>
       </c>
@@ -3147,8 +3175,8 @@
         <v>3</v>
       </c>
       <c r="D21" s="47">
-        <f t="shared" si="0"/>
-        <v>1.7</v>
+        <f>IF(SUM(K21:AF21)=0," ",SUM(K21:AF21))</f>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E21" s="47">
         <v>1</v>
@@ -3172,18 +3200,20 @@
       <c r="T21" s="49">
         <v>1.2</v>
       </c>
-      <c r="U21" s="51"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="69"/>
-      <c r="AE21" s="72"/>
-      <c r="AF21" s="27"/>
+      <c r="U21" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="V21" s="51"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="72"/>
       <c r="AG21" s="27"/>
       <c r="AH21" s="27"/>
       <c r="AI21" s="27"/>
@@ -3193,8 +3223,9 @@
       <c r="AM21" s="27"/>
       <c r="AN21" s="27"/>
       <c r="AO21" s="27"/>
-    </row>
-    <row r="22" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP21" s="27"/>
+    </row>
+    <row r="22" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36">
         <v>36</v>
       </c>
@@ -3205,8 +3236,8 @@
         <v>2.5</v>
       </c>
       <c r="D22" s="47">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(SUM(K22:AF22)=0," ",SUM(K22:AF22))</f>
+        <v>6.5</v>
       </c>
       <c r="E22" s="47">
         <v>1</v>
@@ -3228,20 +3259,22 @@
         <v>2.5</v>
       </c>
       <c r="T22" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="U22" s="51"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="69"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="U22" s="51">
+        <v>2</v>
+      </c>
+      <c r="V22" s="51"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="69"/>
+      <c r="AF22" s="72"/>
       <c r="AG22" s="27"/>
       <c r="AH22" s="27"/>
       <c r="AI22" s="27"/>
@@ -3251,8 +3284,9 @@
       <c r="AM22" s="27"/>
       <c r="AN22" s="27"/>
       <c r="AO22" s="27"/>
-    </row>
-    <row r="23" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP22" s="27"/>
+    </row>
+    <row r="23" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36">
         <v>37</v>
       </c>
@@ -3263,8 +3297,8 @@
         <v>2.5</v>
       </c>
       <c r="D23" s="47">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>IF(SUM(K23:AF23)=0," ",SUM(K23:AF23))</f>
+        <v>1</v>
       </c>
       <c r="E23" s="47">
         <v>1</v>
@@ -3287,19 +3321,21 @@
       <c r="S23" s="51">
         <v>0.5</v>
       </c>
-      <c r="T23" s="47"/>
+      <c r="T23" s="47">
+        <v>0.5</v>
+      </c>
       <c r="U23" s="55"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="51"/>
-      <c r="AD23" s="69"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="27"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="69"/>
+      <c r="AF23" s="72"/>
       <c r="AG23" s="27"/>
       <c r="AH23" s="27"/>
       <c r="AI23" s="27"/>
@@ -3309,8 +3345,9 @@
       <c r="AM23" s="27"/>
       <c r="AN23" s="27"/>
       <c r="AO23" s="27"/>
-    </row>
-    <row r="24" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP23" s="27"/>
+    </row>
+    <row r="24" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45">
         <v>40</v>
       </c>
@@ -3323,7 +3360,7 @@
       </c>
       <c r="D24" s="45">
         <f>SUM(D25:D26)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="25"/>
@@ -3342,7 +3379,7 @@
       <c r="S24" s="30"/>
       <c r="T24" s="30"/>
       <c r="U24" s="30"/>
-      <c r="V24" s="25"/>
+      <c r="V24" s="30"/>
       <c r="W24" s="25"/>
       <c r="X24" s="25"/>
       <c r="Y24" s="25"/>
@@ -3350,10 +3387,11 @@
       <c r="AA24" s="25"/>
       <c r="AB24" s="25"/>
       <c r="AC24" s="25"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="72"/>
-    </row>
-    <row r="25" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="72"/>
+    </row>
+    <row r="25" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36">
         <v>41</v>
       </c>
@@ -3363,9 +3401,9 @@
       <c r="C25" s="47">
         <v>2</v>
       </c>
-      <c r="D25" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+      <c r="D25" s="47">
+        <f>IF(SUM(K25:AF25)=0," ",SUM(K25:AF25))</f>
+        <v>1.5</v>
       </c>
       <c r="E25" s="47">
         <v>1</v>
@@ -3384,19 +3422,23 @@
       <c r="Q25" s="52"/>
       <c r="R25" s="53"/>
       <c r="S25" s="51"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="69"/>
-      <c r="AE25" s="72"/>
-      <c r="AF25" s="27"/>
+      <c r="T25" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="U25" s="55">
+        <v>1</v>
+      </c>
+      <c r="V25" s="55"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="53"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="69"/>
+      <c r="AF25" s="72"/>
       <c r="AG25" s="27"/>
       <c r="AH25" s="27"/>
       <c r="AI25" s="27"/>
@@ -3406,8 +3448,9 @@
       <c r="AM25" s="27"/>
       <c r="AN25" s="27"/>
       <c r="AO25" s="27"/>
-    </row>
-    <row r="26" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP25" s="27"/>
+    </row>
+    <row r="26" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="36">
         <v>42</v>
       </c>
@@ -3417,9 +3460,9 @@
       <c r="C26" s="47">
         <v>3</v>
       </c>
-      <c r="D26" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+      <c r="D26" s="47">
+        <f>IF(SUM(K26:AF26)=0," ",SUM(K26:AF26))</f>
+        <v>3</v>
       </c>
       <c r="E26" s="47">
         <v>1</v>
@@ -3439,18 +3482,20 @@
       <c r="R26" s="53"/>
       <c r="S26" s="51"/>
       <c r="T26" s="47"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="69"/>
-      <c r="AE26" s="72"/>
-      <c r="AF26" s="27"/>
+      <c r="U26" s="51">
+        <v>3</v>
+      </c>
+      <c r="V26" s="51"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="69"/>
+      <c r="AF26" s="72"/>
       <c r="AG26" s="27"/>
       <c r="AH26" s="27"/>
       <c r="AI26" s="27"/>
@@ -3460,8 +3505,9 @@
       <c r="AM26" s="27"/>
       <c r="AN26" s="27"/>
       <c r="AO26" s="27"/>
-    </row>
-    <row r="27" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP26" s="27"/>
+    </row>
+    <row r="27" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45">
         <v>50</v>
       </c>
@@ -3470,7 +3516,7 @@
       </c>
       <c r="C27" s="25">
         <f>SUM(C28:C29)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D27" s="45">
         <f>SUM(D28:D29)</f>
@@ -3493,7 +3539,7 @@
       <c r="S27" s="68"/>
       <c r="T27" s="68"/>
       <c r="U27" s="68"/>
-      <c r="V27" s="25"/>
+      <c r="V27" s="68"/>
       <c r="W27" s="25"/>
       <c r="X27" s="25"/>
       <c r="Y27" s="25"/>
@@ -3501,10 +3547,11 @@
       <c r="AA27" s="25"/>
       <c r="AB27" s="25"/>
       <c r="AC27" s="25"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="72"/>
-    </row>
-    <row r="28" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="72"/>
+    </row>
+    <row r="28" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="36">
         <v>51</v>
       </c>
@@ -3515,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="47">
-        <f t="shared" si="0"/>
+        <f>IF(SUM(K28:AF28)=0," ",SUM(K28:AF28))</f>
         <v>0.5</v>
       </c>
       <c r="E28" s="47">
@@ -3539,17 +3586,17 @@
       <c r="S28" s="51"/>
       <c r="T28" s="47"/>
       <c r="U28" s="51"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="53"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="69"/>
-      <c r="AE28" s="72"/>
-      <c r="AF28" s="27"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="69"/>
+      <c r="AF28" s="72"/>
       <c r="AG28" s="27"/>
       <c r="AH28" s="27"/>
       <c r="AI28" s="27"/>
@@ -3559,13 +3606,18 @@
       <c r="AM28" s="27"/>
       <c r="AN28" s="27"/>
       <c r="AO28" s="27"/>
-    </row>
-    <row r="29" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP28" s="27"/>
+    </row>
+    <row r="29" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36">
         <v>52</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="47">
+        <v>5</v>
+      </c>
       <c r="D29" s="47">
         <v>1</v>
       </c>
@@ -3586,17 +3638,19 @@
       <c r="S29" s="51"/>
       <c r="T29" s="47"/>
       <c r="U29" s="51"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="53"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="69"/>
-      <c r="AE29" s="72"/>
-      <c r="AF29" s="27"/>
+      <c r="V29" s="51">
+        <v>1</v>
+      </c>
+      <c r="W29" s="52"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="69"/>
+      <c r="AF29" s="72"/>
       <c r="AG29" s="27"/>
       <c r="AH29" s="27"/>
       <c r="AI29" s="27"/>
@@ -3606,8 +3660,9 @@
       <c r="AM29" s="27"/>
       <c r="AN29" s="27"/>
       <c r="AO29" s="27"/>
-    </row>
-    <row r="30" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP29" s="27"/>
+    </row>
+    <row r="30" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45">
         <v>60</v>
       </c>
@@ -3639,7 +3694,7 @@
       <c r="S30" s="30"/>
       <c r="T30" s="30"/>
       <c r="U30" s="30"/>
-      <c r="V30" s="25"/>
+      <c r="V30" s="30"/>
       <c r="W30" s="25"/>
       <c r="X30" s="25"/>
       <c r="Y30" s="25"/>
@@ -3647,10 +3702,11 @@
       <c r="AA30" s="25"/>
       <c r="AB30" s="25"/>
       <c r="AC30" s="25"/>
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="72"/>
-    </row>
-    <row r="31" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="72"/>
+    </row>
+    <row r="31" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36">
         <v>61</v>
       </c>
@@ -3659,7 +3715,7 @@
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="47" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(SUM(K31:AF31)=0," ",SUM(K31:AF31))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E31" s="47">
@@ -3681,17 +3737,17 @@
       <c r="S31" s="51"/>
       <c r="T31" s="47"/>
       <c r="U31" s="51"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="47"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="69"/>
-      <c r="AE31" s="72"/>
-      <c r="AF31" s="27"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="69"/>
+      <c r="AF31" s="72"/>
       <c r="AG31" s="27"/>
       <c r="AH31" s="27"/>
       <c r="AI31" s="27"/>
@@ -3701,8 +3757,9 @@
       <c r="AM31" s="27"/>
       <c r="AN31" s="27"/>
       <c r="AO31" s="27"/>
-    </row>
-    <row r="32" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP31" s="27"/>
+    </row>
+    <row r="32" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="36">
         <v>62</v>
       </c>
@@ -3711,7 +3768,7 @@
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(SUM(K32:AF32)=0," ",SUM(K32:AF32))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E32" s="47">
@@ -3733,19 +3790,19 @@
       <c r="S32" s="51"/>
       <c r="T32" s="47"/>
       <c r="U32" s="51"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="75" t="s">
+      <c r="V32" s="51"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="53"/>
-      <c r="AC32" s="61"/>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="72"/>
-      <c r="AF32" s="27"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="53"/>
+      <c r="AD32" s="61"/>
+      <c r="AE32" s="69"/>
+      <c r="AF32" s="72"/>
       <c r="AG32" s="27"/>
       <c r="AH32" s="27"/>
       <c r="AI32" s="27"/>
@@ -3755,19 +3812,20 @@
       <c r="AM32" s="27"/>
       <c r="AN32" s="27"/>
       <c r="AO32" s="27"/>
-    </row>
-    <row r="33" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP32" s="27"/>
+    </row>
+    <row r="33" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="25">
         <f>SUM(C5+C11+C16+C24+C27+C30)</f>
-        <v>44.5</v>
+        <v>49.5</v>
       </c>
       <c r="D33" s="25">
         <f>SUM(D30+D27+D24+D16+D11+D5)</f>
-        <v>36</v>
+        <v>45.75</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
@@ -3796,80 +3854,82 @@
         <v>7.5</v>
       </c>
       <c r="P33" s="65">
-        <f t="shared" ref="P33:Y33" si="1">SUM(P5:P32)</f>
+        <f t="shared" ref="P33:Z33" si="0">SUM(P5:P32)</f>
         <v>7</v>
       </c>
       <c r="Q33" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R33" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S33" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T33" s="25">
-        <f t="shared" si="1"/>
-        <v>4.7</v>
+        <f t="shared" si="0"/>
+        <v>7.2</v>
       </c>
       <c r="U33" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="V33" s="65">
+        <v>1</v>
+      </c>
+      <c r="W33" s="65">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V33" s="65">
-        <f t="shared" si="1"/>
+      <c r="X33" s="25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W33" s="25">
-        <f t="shared" si="1"/>
+      <c r="Y33" s="65">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X33" s="65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="65">
-        <f>SUM(Z5:Z32)</f>
+      <c r="Z33" s="25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA33" s="65">
         <f>SUM(AA5:AA32)</f>
         <v>0</v>
       </c>
-      <c r="AB33" s="25">
+      <c r="AB33" s="65">
         <f>SUM(AB5:AB32)</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="65">
+      <c r="AC33" s="25">
         <f>SUM(AC5:AC32)</f>
         <v>0</v>
       </c>
-      <c r="AD33" s="26">
+      <c r="AD33" s="65">
         <f>SUM(AD5:AD32)</f>
         <v>0</v>
       </c>
-      <c r="AE33" s="73"/>
-    </row>
-    <row r="34" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE33" s="26">
+        <f>SUM(AE5:AE32)</f>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="73"/>
+    </row>
+    <row r="34" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
       <c r="K34" s="24"/>
-      <c r="AF34" s="28"/>
       <c r="AG34" s="28"/>
       <c r="AH34" s="28"/>
       <c r="AI34" s="28"/>
@@ -3879,8 +3939,9 @@
       <c r="AM34" s="28"/>
       <c r="AN34" s="28"/>
       <c r="AO34" s="28"/>
-    </row>
-    <row r="35" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP34" s="28"/>
+    </row>
+    <row r="35" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="7" t="s">
         <v>18</v>
@@ -3894,28 +3955,29 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="85"/>
-      <c r="W35" s="85"/>
-      <c r="X35" s="85"/>
-      <c r="Y35" s="85"/>
-      <c r="Z35" s="85"/>
-      <c r="AA35" s="85"/>
-      <c r="AB35" s="85"/>
-      <c r="AC35" s="85"/>
-      <c r="AD35" s="85"/>
-      <c r="AE35" s="85"/>
-    </row>
-    <row r="36" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="82"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="83"/>
+      <c r="S35" s="83"/>
+      <c r="T35" s="83"/>
+      <c r="U35" s="83"/>
+      <c r="V35" s="83"/>
+      <c r="W35" s="83"/>
+      <c r="X35" s="83"/>
+      <c r="Y35" s="83"/>
+      <c r="Z35" s="83"/>
+      <c r="AA35" s="83"/>
+      <c r="AB35" s="83"/>
+      <c r="AC35" s="83"/>
+      <c r="AD35" s="83"/>
+      <c r="AE35" s="83"/>
+      <c r="AF35" s="83"/>
+    </row>
+    <row r="36" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="76" t="s">
         <v>49</v>
       </c>
@@ -3931,28 +3993,29 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="83"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="83"/>
-      <c r="S36" s="83"/>
-      <c r="T36" s="83"/>
-      <c r="U36" s="83"/>
-      <c r="V36" s="83"/>
-      <c r="W36" s="83"/>
-      <c r="X36" s="83"/>
-      <c r="Y36" s="83"/>
-      <c r="Z36" s="83"/>
-      <c r="AA36" s="83"/>
-      <c r="AB36" s="83"/>
-      <c r="AC36" s="83"/>
-      <c r="AD36" s="83"/>
-      <c r="AE36" s="83"/>
-    </row>
-    <row r="37" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="81"/>
+      <c r="S36" s="81"/>
+      <c r="T36" s="81"/>
+      <c r="U36" s="81"/>
+      <c r="V36" s="81"/>
+      <c r="W36" s="81"/>
+      <c r="X36" s="81"/>
+      <c r="Y36" s="81"/>
+      <c r="Z36" s="81"/>
+      <c r="AA36" s="81"/>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="81"/>
+      <c r="AD36" s="81"/>
+      <c r="AE36" s="81"/>
+      <c r="AF36" s="81"/>
+    </row>
+    <row r="37" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="77"/>
       <c r="B37" s="6" t="s">
         <v>51</v>
@@ -3966,67 +4029,68 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="83"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="83"/>
-      <c r="S37" s="83"/>
-      <c r="T37" s="83"/>
-      <c r="U37" s="83"/>
-      <c r="V37" s="83"/>
-      <c r="W37" s="83"/>
-      <c r="X37" s="83"/>
-      <c r="Y37" s="83"/>
-      <c r="Z37" s="83"/>
-      <c r="AA37" s="83"/>
-      <c r="AB37" s="83"/>
-      <c r="AC37" s="83"/>
-      <c r="AD37" s="83"/>
-      <c r="AE37" s="83"/>
-    </row>
-    <row r="38" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="81"/>
+      <c r="V37" s="81"/>
+      <c r="W37" s="81"/>
+      <c r="X37" s="81"/>
+      <c r="Y37" s="81"/>
+      <c r="Z37" s="81"/>
+      <c r="AA37" s="81"/>
+      <c r="AB37" s="81"/>
+      <c r="AC37" s="81"/>
+      <c r="AD37" s="81"/>
+      <c r="AE37" s="81"/>
+      <c r="AF37" s="81"/>
+    </row>
+    <row r="38" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="9"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AF3:AJ3"/>
-    <mergeCell ref="AK3:AO3"/>
-    <mergeCell ref="L36:AE37"/>
-    <mergeCell ref="L35:AE35"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="L36:AF37"/>
+    <mergeCell ref="L35:AF35"/>
+    <mergeCell ref="B34:J34"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4050,31 +4114,31 @@
       <selection activeCell="A4" sqref="A4:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-    </row>
-    <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+    </row>
+    <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="2"/>
@@ -4090,7 +4154,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
         <v>15</v>
       </c>
@@ -4098,7 +4162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4108,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4118,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4128,7 +4192,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4138,7 +4202,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4148,7 +4212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4158,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4168,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4178,127 +4242,127 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B12" s="18">
         <f>Zeitplanung!T33</f>
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B13" s="18">
         <f>Zeitplanung!U33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B14" s="18">
-        <f>Zeitplanung!V33</f>
+        <f>Zeitplanung!W33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B15" s="18">
-        <f>Zeitplanung!W33</f>
+        <f>Zeitplanung!X33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B16" s="18">
-        <f>Zeitplanung!X33</f>
+        <f>Zeitplanung!Y33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B17" s="18">
-        <f>Zeitplanung!Y33</f>
+        <f>Zeitplanung!Z33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B18" s="18">
-        <f>Zeitplanung!Z33</f>
+        <f>Zeitplanung!AA33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B19" s="18">
-        <f>Zeitplanung!AA33</f>
+        <f>Zeitplanung!AB33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B20" s="18">
-        <f>Zeitplanung!AB33</f>
+        <f>Zeitplanung!AC33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B21" s="18">
-        <f>Zeitplanung!AC33</f>
+        <f>Zeitplanung!AD33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B22" s="18">
-        <f>Zeitplanung!AD33</f>
+        <f>Zeitplanung!AE33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B23" s="18">
-        <f>Zeitplanung!AE33</f>
+        <f>Zeitplanung!AF33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4308,7 +4372,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4318,7 +4382,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4328,7 +4392,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4338,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4348,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4358,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4368,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4378,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4388,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4398,13 +4462,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="90" t="s">
+    <row r="34" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:4" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="91"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="3" t="s">
         <v>21</v>
       </c>
@@ -4412,25 +4476,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="87" t="s">
+    <row r="37" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="88"/>
+      <c r="B37" s="89"/>
       <c r="C37" s="18">
         <f>Zeitplanung!C5</f>
         <v>16.3</v>
       </c>
       <c r="D37" s="18">
         <f>Zeitplanung!D5</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="92" t="s">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="93"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="18">
         <f>Zeitplanung!C11</f>
         <v>2.7</v>
@@ -4440,53 +4504,53 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="87" t="s">
+    <row r="39" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="88"/>
+      <c r="B39" s="89"/>
       <c r="C39" s="18">
         <f>Zeitplanung!C16</f>
         <v>19.5</v>
       </c>
       <c r="D39" s="18">
         <f>Zeitplanung!D16</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="92" t="s">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="93"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="18">
         <f>Zeitplanung!C24</f>
         <v>5</v>
       </c>
       <c r="D40" s="18">
         <f>Zeitplanung!D24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="87" t="s">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="88"/>
+      <c r="B41" s="89"/>
       <c r="C41" s="18">
         <f>Zeitplanung!C27</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D41" s="18">
         <f>Zeitplanung!D27</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="87" t="s">
+    <row r="42" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="88"/>
+      <c r="B42" s="89"/>
       <c r="C42" s="18">
         <f>Zeitplanung!C30</f>
         <v>0</v>
@@ -4496,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A41:B41"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Nr.</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>CSS3 Buch lesen</t>
+  </si>
+  <si>
+    <t>Ferien alg.</t>
   </si>
 </sst>
 </file>
@@ -976,6 +979,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -988,15 +1000,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1243,13 +1246,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1510,22 +1513,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.25</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.5</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2031,8 +2034,8 @@
   </sheetPr>
   <dimension ref="A1:AP43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2050,40 +2053,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
       <c r="AG1" s="29"/>
       <c r="AH1" s="29"/>
       <c r="AI1" s="29"/>
@@ -2142,10 +2145,10 @@
     <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="86"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -2153,45 +2156,45 @@
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86" t="s">
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
       <c r="V3" s="79"/>
-      <c r="W3" s="86" t="s">
+      <c r="W3" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86" t="s">
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
     </row>
     <row r="4" spans="1:42" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
@@ -2255,7 +2258,9 @@
       <c r="U4" s="44">
         <v>43091</v>
       </c>
-      <c r="V4" s="44"/>
+      <c r="V4" s="44" t="s">
+        <v>53</v>
+      </c>
       <c r="W4" s="44">
         <v>43108</v>
       </c>
@@ -2308,7 +2313,7 @@
       </c>
       <c r="D5" s="25">
         <f>SUM(D6:D10)</f>
-        <v>12.25</v>
+        <v>15.75</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
@@ -2467,7 +2472,7 @@
       </c>
       <c r="D8" s="47">
         <f>IF(SUM(K8:AF8)=0," ",SUM(K8:AF8))</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="E8" s="47">
         <v>1</v>
@@ -2497,7 +2502,9 @@
       <c r="X8" s="53"/>
       <c r="Y8" s="51"/>
       <c r="Z8" s="47"/>
-      <c r="AA8" s="55"/>
+      <c r="AA8" s="55">
+        <v>0.5</v>
+      </c>
       <c r="AB8" s="52"/>
       <c r="AC8" s="53"/>
       <c r="AD8" s="51"/>
@@ -2583,7 +2590,7 @@
       </c>
       <c r="D10" s="47">
         <f>IF(SUM(K10:AF10)=0," ",SUM(K10:AF10))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E10" s="47">
         <v>1</v>
@@ -2612,8 +2619,12 @@
       <c r="W10" s="52"/>
       <c r="X10" s="53"/>
       <c r="Y10" s="56"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="55"/>
+      <c r="Z10" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="AA10" s="55">
+        <v>1.5</v>
+      </c>
       <c r="AB10" s="52"/>
       <c r="AC10" s="53"/>
       <c r="AD10" s="55"/>
@@ -2897,7 +2908,7 @@
       </c>
       <c r="D16" s="45">
         <f>SUM(D17:D23)</f>
-        <v>23.5</v>
+        <v>26.5</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="25"/>
@@ -2939,7 +2950,7 @@
         <v>1.5</v>
       </c>
       <c r="D17" s="47">
-        <f>IF(SUM(K17:AF17)=0," ",SUM(K17:AF17))</f>
+        <f t="shared" ref="D17:D23" si="0">IF(SUM(K17:AF17)=0," ",SUM(K17:AF17))</f>
         <v>1.3</v>
       </c>
       <c r="E17" s="47">
@@ -2998,7 +3009,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="47">
-        <f>IF(SUM(K18:AF18)=0," ",SUM(K18:AF18))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E18" s="47">
@@ -3055,7 +3066,7 @@
         <v>3.5</v>
       </c>
       <c r="D19" s="47">
-        <f>IF(SUM(K19:AF19)=0," ",SUM(K19:AF19))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E19" s="47">
@@ -3114,8 +3125,8 @@
         <v>4.5</v>
       </c>
       <c r="D20" s="47">
-        <f>IF(SUM(K20:AF20)=0," ",SUM(K20:AF20))</f>
-        <v>5.5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="E20" s="47">
         <v>1</v>
@@ -3146,7 +3157,9 @@
       <c r="W20" s="52"/>
       <c r="X20" s="53"/>
       <c r="Y20" s="56"/>
-      <c r="Z20" s="57"/>
+      <c r="Z20" s="57">
+        <v>0.5</v>
+      </c>
       <c r="AA20" s="56"/>
       <c r="AB20" s="52"/>
       <c r="AC20" s="53"/>
@@ -3175,8 +3188,8 @@
         <v>3</v>
       </c>
       <c r="D21" s="47">
-        <f>IF(SUM(K21:AF21)=0," ",SUM(K21:AF21))</f>
-        <v>2.2000000000000002</v>
+        <f t="shared" si="0"/>
+        <v>2.7</v>
       </c>
       <c r="E21" s="47">
         <v>1</v>
@@ -3207,7 +3220,9 @@
       <c r="W21" s="52"/>
       <c r="X21" s="53"/>
       <c r="Y21" s="56"/>
-      <c r="Z21" s="57"/>
+      <c r="Z21" s="57">
+        <v>0.5</v>
+      </c>
       <c r="AA21" s="56"/>
       <c r="AB21" s="52"/>
       <c r="AC21" s="53"/>
@@ -3236,8 +3251,8 @@
         <v>2.5</v>
       </c>
       <c r="D22" s="47">
-        <f>IF(SUM(K22:AF22)=0," ",SUM(K22:AF22))</f>
-        <v>6.5</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="E22" s="47">
         <v>1</v>
@@ -3268,7 +3283,9 @@
       <c r="W22" s="52"/>
       <c r="X22" s="53"/>
       <c r="Y22" s="56"/>
-      <c r="Z22" s="57"/>
+      <c r="Z22" s="57">
+        <v>1.5</v>
+      </c>
       <c r="AA22" s="56"/>
       <c r="AB22" s="52"/>
       <c r="AC22" s="53"/>
@@ -3297,8 +3314,8 @@
         <v>2.5</v>
       </c>
       <c r="D23" s="47">
-        <f>IF(SUM(K23:AF23)=0," ",SUM(K23:AF23))</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="E23" s="47">
         <v>1</v>
@@ -3328,7 +3345,9 @@
       <c r="V23" s="55"/>
       <c r="W23" s="52"/>
       <c r="X23" s="53"/>
-      <c r="Y23" s="56"/>
+      <c r="Y23" s="56">
+        <v>0.5</v>
+      </c>
       <c r="Z23" s="57"/>
       <c r="AA23" s="56"/>
       <c r="AB23" s="52"/>
@@ -3360,7 +3379,7 @@
       </c>
       <c r="D24" s="45">
         <f>SUM(D25:D26)</f>
-        <v>4.5</v>
+        <v>17.5</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="25"/>
@@ -3403,7 +3422,7 @@
       </c>
       <c r="D25" s="47">
         <f>IF(SUM(K25:AF25)=0," ",SUM(K25:AF25))</f>
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="E25" s="47">
         <v>1</v>
@@ -3431,9 +3450,15 @@
       <c r="V25" s="55"/>
       <c r="W25" s="52"/>
       <c r="X25" s="53"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="56"/>
+      <c r="Y25" s="55">
+        <v>2.5</v>
+      </c>
+      <c r="Z25" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="AA25" s="56">
+        <v>1</v>
+      </c>
       <c r="AB25" s="52"/>
       <c r="AC25" s="53"/>
       <c r="AD25" s="51"/>
@@ -3462,7 +3487,7 @@
       </c>
       <c r="D26" s="47">
         <f>IF(SUM(K26:AF26)=0," ",SUM(K26:AF26))</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E26" s="47">
         <v>1</v>
@@ -3488,9 +3513,15 @@
       <c r="V26" s="51"/>
       <c r="W26" s="52"/>
       <c r="X26" s="53"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="51"/>
+      <c r="Y26" s="51">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="49">
+        <v>3</v>
+      </c>
+      <c r="AA26" s="51">
+        <v>2</v>
+      </c>
       <c r="AB26" s="52"/>
       <c r="AC26" s="53"/>
       <c r="AD26" s="51"/>
@@ -3639,7 +3670,7 @@
       <c r="T29" s="47"/>
       <c r="U29" s="51"/>
       <c r="V29" s="51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W29" s="52"/>
       <c r="X29" s="53"/>
@@ -3675,7 +3706,7 @@
       </c>
       <c r="D30" s="45">
         <f>SUM(D31:D32)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -3767,9 +3798,9 @@
         <v>29</v>
       </c>
       <c r="C32" s="47"/>
-      <c r="D32" s="47" t="str">
+      <c r="D32" s="47">
         <f>IF(SUM(K32:AF32)=0," ",SUM(K32:AF32))</f>
-        <v xml:space="preserve"> </v>
+        <v>2</v>
       </c>
       <c r="E32" s="47">
         <v>1</v>
@@ -3795,8 +3826,8 @@
       <c r="X32" s="53"/>
       <c r="Y32" s="51"/>
       <c r="Z32" s="47"/>
-      <c r="AA32" s="75" t="s">
-        <v>49</v>
+      <c r="AA32" s="75">
+        <v>2</v>
       </c>
       <c r="AB32" s="52"/>
       <c r="AC32" s="53"/>
@@ -3825,7 +3856,7 @@
       </c>
       <c r="D33" s="25">
         <f>SUM(D30+D27+D24+D16+D11+D5)</f>
-        <v>45.75</v>
+        <v>67.25</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
@@ -3854,51 +3885,51 @@
         <v>7.5</v>
       </c>
       <c r="P33" s="65">
-        <f t="shared" ref="P33:Z33" si="0">SUM(P5:P32)</f>
+        <f t="shared" ref="P33:Z33" si="1">SUM(P5:P32)</f>
         <v>7</v>
       </c>
       <c r="Q33" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R33" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S33" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="T33" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
       <c r="U33" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.25</v>
       </c>
       <c r="V33" s="65">
         <v>1</v>
       </c>
       <c r="W33" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X33" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y33" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="Z33" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7.5</v>
       </c>
       <c r="AA33" s="65">
         <f>SUM(AA5:AA32)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB33" s="65">
         <f>SUM(AB5:AB32)</f>
@@ -3920,15 +3951,15 @@
     </row>
     <row r="34" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
       <c r="K34" s="24"/>
       <c r="AG34" s="28"/>
       <c r="AH34" s="28"/>
@@ -3955,27 +3986,27 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83"/>
-      <c r="S35" s="83"/>
-      <c r="T35" s="83"/>
-      <c r="U35" s="83"/>
-      <c r="V35" s="83"/>
-      <c r="W35" s="83"/>
-      <c r="X35" s="83"/>
-      <c r="Y35" s="83"/>
-      <c r="Z35" s="83"/>
-      <c r="AA35" s="83"/>
-      <c r="AB35" s="83"/>
-      <c r="AC35" s="83"/>
-      <c r="AD35" s="83"/>
-      <c r="AE35" s="83"/>
-      <c r="AF35" s="83"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="86"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="86"/>
+      <c r="U35" s="86"/>
+      <c r="V35" s="86"/>
+      <c r="W35" s="86"/>
+      <c r="X35" s="86"/>
+      <c r="Y35" s="86"/>
+      <c r="Z35" s="86"/>
+      <c r="AA35" s="86"/>
+      <c r="AB35" s="86"/>
+      <c r="AC35" s="86"/>
+      <c r="AD35" s="86"/>
+      <c r="AE35" s="86"/>
+      <c r="AF35" s="86"/>
     </row>
     <row r="36" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="76" t="s">
@@ -3993,27 +4024,27 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81"/>
-      <c r="S36" s="81"/>
-      <c r="T36" s="81"/>
-      <c r="U36" s="81"/>
-      <c r="V36" s="81"/>
-      <c r="W36" s="81"/>
-      <c r="X36" s="81"/>
-      <c r="Y36" s="81"/>
-      <c r="Z36" s="81"/>
-      <c r="AA36" s="81"/>
-      <c r="AB36" s="81"/>
-      <c r="AC36" s="81"/>
-      <c r="AD36" s="81"/>
-      <c r="AE36" s="81"/>
-      <c r="AF36" s="81"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="84"/>
+      <c r="S36" s="84"/>
+      <c r="T36" s="84"/>
+      <c r="U36" s="84"/>
+      <c r="V36" s="84"/>
+      <c r="W36" s="84"/>
+      <c r="X36" s="84"/>
+      <c r="Y36" s="84"/>
+      <c r="Z36" s="84"/>
+      <c r="AA36" s="84"/>
+      <c r="AB36" s="84"/>
+      <c r="AC36" s="84"/>
+      <c r="AD36" s="84"/>
+      <c r="AE36" s="84"/>
+      <c r="AF36" s="84"/>
     </row>
     <row r="37" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="77"/>
@@ -4029,27 +4060,27 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="81"/>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="81"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="81"/>
-      <c r="U37" s="81"/>
-      <c r="V37" s="81"/>
-      <c r="W37" s="81"/>
-      <c r="X37" s="81"/>
-      <c r="Y37" s="81"/>
-      <c r="Z37" s="81"/>
-      <c r="AA37" s="81"/>
-      <c r="AB37" s="81"/>
-      <c r="AC37" s="81"/>
-      <c r="AD37" s="81"/>
-      <c r="AE37" s="81"/>
-      <c r="AF37" s="81"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="84"/>
+      <c r="R37" s="84"/>
+      <c r="S37" s="84"/>
+      <c r="T37" s="84"/>
+      <c r="U37" s="84"/>
+      <c r="V37" s="84"/>
+      <c r="W37" s="84"/>
+      <c r="X37" s="84"/>
+      <c r="Y37" s="84"/>
+      <c r="Z37" s="84"/>
+      <c r="AA37" s="84"/>
+      <c r="AB37" s="84"/>
+      <c r="AC37" s="84"/>
+      <c r="AD37" s="84"/>
+      <c r="AE37" s="84"/>
+      <c r="AF37" s="84"/>
     </row>
     <row r="38" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
@@ -4080,17 +4111,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="L36:AF37"/>
+    <mergeCell ref="L35:AF35"/>
+    <mergeCell ref="B34:J34"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="W3:AA3"/>
     <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="L36:AF37"/>
-    <mergeCell ref="L35:AF35"/>
-    <mergeCell ref="B34:J34"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4289,7 +4320,7 @@
       </c>
       <c r="B16" s="18">
         <f>Zeitplanung!Y33</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4299,7 +4330,7 @@
       </c>
       <c r="B17" s="18">
         <f>Zeitplanung!Z33</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4309,7 +4340,7 @@
       </c>
       <c r="B18" s="18">
         <f>Zeitplanung!AA33</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4487,7 +4518,7 @@
       </c>
       <c r="D37" s="18">
         <f>Zeitplanung!D5</f>
-        <v>12.25</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4515,7 +4546,7 @@
       </c>
       <c r="D39" s="18">
         <f>Zeitplanung!D16</f>
-        <v>23.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4529,7 +4560,7 @@
       </c>
       <c r="D40" s="18">
         <f>Zeitplanung!D24</f>
-        <v>4.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4557,7 +4588,7 @@
       </c>
       <c r="D42" s="18">
         <f>Zeitplanung!D30</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$N$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$AF$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$AF$41</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Nr.</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>Ferien alg.</t>
+  </si>
+  <si>
+    <t>Design</t>
   </si>
 </sst>
 </file>
@@ -756,7 +759,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -979,13 +982,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1000,6 +997,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1252,7 +1258,7 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1261,7 +1267,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -1445,7 +1451,7 @@
                   <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.5</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5</c:v>
@@ -1513,16 +1519,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15.75</c:v>
+                  <c:v>17.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.5</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.5</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.5</c:v>
@@ -2032,61 +2038,61 @@
   <sheetPr codeName="Tabelle1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AP43"/>
+  <dimension ref="A1:AP44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="AD34" sqref="AD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="44.19921875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="3.8984375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="3.8984375" style="12" customWidth="1"/>
-    <col min="5" max="9" width="3.8984375" style="5" customWidth="1"/>
-    <col min="10" max="11" width="3.8984375" style="13" customWidth="1"/>
-    <col min="12" max="32" width="3.19921875" style="5" customWidth="1"/>
-    <col min="33" max="37" width="3.19921875" style="4" customWidth="1"/>
-    <col min="38" max="42" width="3.09765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="44.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="3.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="3.875" style="12" customWidth="1"/>
+    <col min="5" max="9" width="3.875" style="5" customWidth="1"/>
+    <col min="10" max="11" width="3.875" style="13" customWidth="1"/>
+    <col min="12" max="32" width="3.25" style="5" customWidth="1"/>
+    <col min="33" max="37" width="3.25" style="4" customWidth="1"/>
+    <col min="38" max="42" width="3.125" style="4" customWidth="1"/>
     <col min="43" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:42" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
       <c r="AG1" s="29"/>
       <c r="AH1" s="29"/>
       <c r="AI1" s="29"/>
@@ -2098,7 +2104,7 @@
       <c r="AO1" s="29"/>
       <c r="AP1" s="29"/>
     </row>
-    <row r="2" spans="1:42" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -2142,13 +2148,13 @@
       <c r="AO2" s="66"/>
       <c r="AP2" s="66"/>
     </row>
-    <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -2156,47 +2162,47 @@
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
-      <c r="L3" s="81" t="s">
+      <c r="L3" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
       <c r="V3" s="79"/>
-      <c r="W3" s="81" t="s">
+      <c r="W3" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81" t="s">
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="83"/>
-      <c r="AI3" s="83"/>
-      <c r="AJ3" s="83"/>
-      <c r="AK3" s="83"/>
-      <c r="AL3" s="83"/>
-      <c r="AM3" s="83"/>
-      <c r="AN3" s="83"/>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="83"/>
-    </row>
-    <row r="4" spans="1:42" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="81"/>
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="81"/>
+      <c r="AO3" s="81"/>
+      <c r="AP3" s="81"/>
+    </row>
+    <row r="4" spans="1:42" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>0</v>
       </c>
@@ -2300,7 +2306,7 @@
       <c r="AO4" s="27"/>
       <c r="AP4" s="27"/>
     </row>
-    <row r="5" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45">
         <v>10</v>
       </c>
@@ -2313,7 +2319,7 @@
       </c>
       <c r="D5" s="25">
         <f>SUM(D6:D10)</f>
-        <v>15.75</v>
+        <v>17.25</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
@@ -2344,7 +2350,7 @@
       <c r="AE5" s="14"/>
       <c r="AF5" s="71"/>
     </row>
-    <row r="6" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>11</v>
       </c>
@@ -2401,7 +2407,7 @@
       <c r="AO6" s="27"/>
       <c r="AP6" s="27"/>
     </row>
-    <row r="7" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>12</v>
       </c>
@@ -2460,7 +2466,7 @@
       <c r="AO7" s="27"/>
       <c r="AP7" s="27"/>
     </row>
-    <row r="8" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>13</v>
       </c>
@@ -2521,7 +2527,7 @@
       <c r="AO8" s="27"/>
       <c r="AP8" s="27"/>
     </row>
-    <row r="9" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>14</v>
       </c>
@@ -2578,7 +2584,7 @@
       <c r="AO9" s="27"/>
       <c r="AP9" s="27"/>
     </row>
-    <row r="10" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>15</v>
       </c>
@@ -2590,7 +2596,7 @@
       </c>
       <c r="D10" s="47">
         <f>IF(SUM(K10:AF10)=0," ",SUM(K10:AF10))</f>
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="E10" s="47">
         <v>1</v>
@@ -2627,7 +2633,9 @@
       </c>
       <c r="AB10" s="52"/>
       <c r="AC10" s="53"/>
-      <c r="AD10" s="55"/>
+      <c r="AD10" s="55">
+        <v>1.5</v>
+      </c>
       <c r="AE10" s="70"/>
       <c r="AF10" s="72"/>
       <c r="AG10" s="27"/>
@@ -2641,7 +2649,7 @@
       <c r="AO10" s="27"/>
       <c r="AP10" s="27"/>
     </row>
-    <row r="11" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
         <v>20</v>
       </c>
@@ -2685,7 +2693,7 @@
       <c r="AE11" s="26"/>
       <c r="AF11" s="72"/>
     </row>
-    <row r="12" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>21</v>
       </c>
@@ -2742,7 +2750,7 @@
       <c r="AO12" s="27"/>
       <c r="AP12" s="27"/>
     </row>
-    <row r="13" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>22</v>
       </c>
@@ -2797,7 +2805,7 @@
       <c r="AO13" s="27"/>
       <c r="AP13" s="27"/>
     </row>
-    <row r="14" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>23</v>
       </c>
@@ -2846,7 +2854,7 @@
       <c r="AO14" s="27"/>
       <c r="AP14" s="27"/>
     </row>
-    <row r="15" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>24</v>
       </c>
@@ -2895,7 +2903,7 @@
       <c r="AO15" s="27"/>
       <c r="AP15" s="27"/>
     </row>
-    <row r="16" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45">
         <v>30</v>
       </c>
@@ -2903,12 +2911,12 @@
         <v>9</v>
       </c>
       <c r="C16" s="25">
-        <f>SUM(C17:C23)</f>
-        <v>19.5</v>
+        <f>SUM(C17:C24)</f>
+        <v>22.5</v>
       </c>
       <c r="D16" s="45">
-        <f>SUM(D17:D23)</f>
-        <v>26.5</v>
+        <f>SUM(D17:D24)</f>
+        <v>29</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="25"/>
@@ -2939,7 +2947,7 @@
       <c r="AE16" s="26"/>
       <c r="AF16" s="72"/>
     </row>
-    <row r="17" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>31</v>
       </c>
@@ -2950,7 +2958,7 @@
         <v>1.5</v>
       </c>
       <c r="D17" s="47">
-        <f t="shared" ref="D17:D23" si="0">IF(SUM(K17:AF17)=0," ",SUM(K17:AF17))</f>
+        <f t="shared" ref="D17:D24" si="0">IF(SUM(K17:AF17)=0," ",SUM(K17:AF17))</f>
         <v>1.3</v>
       </c>
       <c r="E17" s="47">
@@ -2998,7 +3006,7 @@
       <c r="AO17" s="27"/>
       <c r="AP17" s="27"/>
     </row>
-    <row r="18" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>32</v>
       </c>
@@ -3055,7 +3063,7 @@
       <c r="AO18" s="27"/>
       <c r="AP18" s="27"/>
     </row>
-    <row r="19" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>33</v>
       </c>
@@ -3114,7 +3122,7 @@
       <c r="AO19" s="27"/>
       <c r="AP19" s="27"/>
     </row>
-    <row r="20" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>34</v>
       </c>
@@ -3177,7 +3185,7 @@
       <c r="AO20" s="27"/>
       <c r="AP20" s="27"/>
     </row>
-    <row r="21" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>35</v>
       </c>
@@ -3240,7 +3248,7 @@
       <c r="AO21" s="27"/>
       <c r="AP21" s="27"/>
     </row>
-    <row r="22" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>36</v>
       </c>
@@ -3303,23 +3311,19 @@
       <c r="AO22" s="27"/>
       <c r="AP22" s="27"/>
     </row>
-    <row r="23" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36">
-        <v>37</v>
-      </c>
+    <row r="23" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
       <c r="B23" s="59" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C23" s="47">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D23" s="47">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E23" s="47">
-        <v>1</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="E23" s="47"/>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
       <c r="H23" s="47"/>
@@ -3327,32 +3331,28 @@
       <c r="J23" s="54"/>
       <c r="K23" s="54"/>
       <c r="L23" s="53"/>
-      <c r="M23" s="52" t="s">
-        <v>47</v>
-      </c>
+      <c r="M23" s="52"/>
       <c r="N23" s="51"/>
       <c r="O23" s="51"/>
       <c r="P23" s="51"/>
       <c r="Q23" s="52"/>
       <c r="R23" s="53"/>
-      <c r="S23" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="T23" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
       <c r="W23" s="52"/>
       <c r="X23" s="53"/>
-      <c r="Y23" s="56">
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="55">
         <v>0.5</v>
       </c>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="56"/>
       <c r="AB23" s="52"/>
       <c r="AC23" s="53"/>
-      <c r="AD23" s="51"/>
+      <c r="AD23" s="55">
+        <v>2</v>
+      </c>
       <c r="AE23" s="69"/>
       <c r="AF23" s="72"/>
       <c r="AG23" s="27"/>
@@ -3366,128 +3366,126 @@
       <c r="AO23" s="27"/>
       <c r="AP23" s="27"/>
     </row>
-    <row r="24" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45">
+    <row r="24" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36">
+        <v>37</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="47">
+        <v>2.5</v>
+      </c>
+      <c r="D24" s="47">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E24" s="47">
+        <v>1</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="T24" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="27"/>
+      <c r="AP24" s="27"/>
+    </row>
+    <row r="25" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="45">
         <v>40</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="25">
-        <f>SUM(C25:C26)</f>
+      <c r="C25" s="25">
+        <f>SUM(C26:C27)</f>
         <v>5</v>
       </c>
-      <c r="D24" s="45">
-        <f>SUM(D25:D26)</f>
-        <v>17.5</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="72"/>
-    </row>
-    <row r="25" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36">
+      <c r="D25" s="45">
+        <f>SUM(D26:D27)</f>
+        <v>19.5</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="72"/>
+    </row>
+    <row r="26" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36">
         <v>41</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B26" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C26" s="47">
         <v>2</v>
-      </c>
-      <c r="D25" s="47">
-        <f>IF(SUM(K25:AF25)=0," ",SUM(K25:AF25))</f>
-        <v>5.5</v>
-      </c>
-      <c r="E25" s="47">
-        <v>1</v>
-      </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="U25" s="55">
-        <v>1</v>
-      </c>
-      <c r="V25" s="55"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="55">
-        <v>2.5</v>
-      </c>
-      <c r="Z25" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="AA25" s="56">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="53"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="69"/>
-      <c r="AF25" s="72"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="27"/>
-      <c r="AM25" s="27"/>
-      <c r="AN25" s="27"/>
-      <c r="AO25" s="27"/>
-      <c r="AP25" s="27"/>
-    </row>
-    <row r="26" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36">
-        <v>42</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="47">
-        <v>3</v>
       </c>
       <c r="D26" s="47">
         <f>IF(SUM(K26:AF26)=0," ",SUM(K26:AF26))</f>
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="E26" s="47">
         <v>1</v>
@@ -3506,21 +3504,23 @@
       <c r="Q26" s="52"/>
       <c r="R26" s="53"/>
       <c r="S26" s="51"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="51">
-        <v>3</v>
-      </c>
-      <c r="V26" s="51"/>
+      <c r="T26" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="U26" s="55">
+        <v>1</v>
+      </c>
+      <c r="V26" s="55"/>
       <c r="W26" s="52"/>
       <c r="X26" s="53"/>
-      <c r="Y26" s="51">
-        <v>4</v>
-      </c>
-      <c r="Z26" s="49">
-        <v>3</v>
-      </c>
-      <c r="AA26" s="51">
-        <v>2</v>
+      <c r="Y26" s="55">
+        <v>2.5</v>
+      </c>
+      <c r="Z26" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="AA26" s="56">
+        <v>1</v>
       </c>
       <c r="AB26" s="52"/>
       <c r="AC26" s="53"/>
@@ -3538,140 +3538,151 @@
       <c r="AO26" s="27"/>
       <c r="AP26" s="27"/>
     </row>
-    <row r="27" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45">
+    <row r="27" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="36">
+        <v>42</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="47">
+        <v>3</v>
+      </c>
+      <c r="D27" s="47">
+        <f>IF(SUM(K27:AF27)=0," ",SUM(K27:AF27))</f>
+        <v>14</v>
+      </c>
+      <c r="E27" s="47">
+        <v>1</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="51">
+        <v>3</v>
+      </c>
+      <c r="V27" s="51"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="51">
+        <v>4</v>
+      </c>
+      <c r="Z27" s="49">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="51">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="51">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="69"/>
+      <c r="AF27" s="72"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
+      <c r="AP27" s="27"/>
+    </row>
+    <row r="28" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="45">
         <v>50</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="25">
-        <f>SUM(C28:C29)</f>
+      <c r="C28" s="25">
+        <f>SUM(C29:C30)</f>
         <v>6</v>
       </c>
-      <c r="D27" s="45">
-        <f>SUM(D28:D29)</f>
+      <c r="D28" s="45">
+        <f>SUM(D29:D30)</f>
         <v>1.5</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="72"/>
-    </row>
-    <row r="28" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36">
+      <c r="E28" s="15"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="72"/>
+    </row>
+    <row r="29" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36">
         <v>51</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B29" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C29" s="47">
         <v>1</v>
       </c>
-      <c r="D28" s="47">
-        <f>IF(SUM(K28:AF28)=0," ",SUM(K28:AF28))</f>
+      <c r="D29" s="47">
+        <f>IF(SUM(K29:AF29)=0," ",SUM(K29:AF29))</f>
         <v>0.5</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E29" s="47">
         <v>3</v>
       </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="53"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="69"/>
-      <c r="AF28" s="72"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="27"/>
-      <c r="AJ28" s="27"/>
-      <c r="AK28" s="27"/>
-      <c r="AL28" s="27"/>
-      <c r="AM28" s="27"/>
-      <c r="AN28" s="27"/>
-      <c r="AO28" s="27"/>
-      <c r="AP28" s="27"/>
-    </row>
-    <row r="29" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36">
-        <v>52</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="47">
-        <v>5</v>
-      </c>
-      <c r="D29" s="47">
-        <v>1</v>
-      </c>
-      <c r="E29" s="47"/>
       <c r="F29" s="47"/>
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
       <c r="I29" s="48"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
       <c r="L29" s="53"/>
       <c r="M29" s="52"/>
       <c r="N29" s="51"/>
       <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
+      <c r="P29" s="51">
+        <v>0.5</v>
+      </c>
       <c r="Q29" s="52"/>
       <c r="R29" s="53"/>
       <c r="S29" s="51"/>
       <c r="T29" s="47"/>
       <c r="U29" s="51"/>
-      <c r="V29" s="51">
-        <v>4</v>
-      </c>
+      <c r="V29" s="51"/>
       <c r="W29" s="52"/>
       <c r="X29" s="53"/>
       <c r="Y29" s="51"/>
@@ -3693,117 +3704,118 @@
       <c r="AO29" s="27"/>
       <c r="AP29" s="27"/>
     </row>
-    <row r="30" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45">
+    <row r="30" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="36">
+        <v>52</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="47">
+        <v>5</v>
+      </c>
+      <c r="D30" s="47">
+        <v>1</v>
+      </c>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51">
+        <v>4</v>
+      </c>
+      <c r="W30" s="52"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="53"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="69"/>
+      <c r="AF30" s="72"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27"/>
+      <c r="AN30" s="27"/>
+      <c r="AO30" s="27"/>
+      <c r="AP30" s="27"/>
+    </row>
+    <row r="31" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="45">
         <v>60</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="25">
-        <f>SUM(C31:C32)</f>
+      <c r="C31" s="25">
+        <f>SUM(C32:C33)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="45">
-        <f>SUM(D31:D32)</f>
+      <c r="D31" s="45">
+        <f>SUM(D32:D33)</f>
         <v>2</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
-      <c r="AD30" s="25"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="72"/>
-    </row>
-    <row r="31" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36">
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="72"/>
+    </row>
+    <row r="32" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="36">
         <v>61</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B32" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47" t="str">
-        <f>IF(SUM(K31:AF31)=0," ",SUM(K31:AF31))</f>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47" t="str">
+        <f>IF(SUM(K32:AF32)=0," ",SUM(K32:AF32))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E31" s="47">
+      <c r="E32" s="47">
         <v>2</v>
-      </c>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="53"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="69"/>
-      <c r="AF31" s="72"/>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="27"/>
-      <c r="AI31" s="27"/>
-      <c r="AJ31" s="27"/>
-      <c r="AK31" s="27"/>
-      <c r="AL31" s="27"/>
-      <c r="AM31" s="27"/>
-      <c r="AN31" s="27"/>
-      <c r="AO31" s="27"/>
-      <c r="AP31" s="27"/>
-    </row>
-    <row r="32" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36">
-        <v>62</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47">
-        <f>IF(SUM(K32:AF32)=0," ",SUM(K32:AF32))</f>
-        <v>2</v>
-      </c>
-      <c r="E32" s="47">
-        <v>1</v>
       </c>
       <c r="F32" s="47"/>
       <c r="G32" s="47"/>
@@ -3826,12 +3838,10 @@
       <c r="X32" s="53"/>
       <c r="Y32" s="51"/>
       <c r="Z32" s="47"/>
-      <c r="AA32" s="75">
-        <v>2</v>
-      </c>
+      <c r="AA32" s="51"/>
       <c r="AB32" s="52"/>
       <c r="AC32" s="53"/>
-      <c r="AD32" s="61"/>
+      <c r="AD32" s="56"/>
       <c r="AE32" s="69"/>
       <c r="AF32" s="72"/>
       <c r="AG32" s="27"/>
@@ -3845,186 +3855,203 @@
       <c r="AO32" s="27"/>
       <c r="AP32" s="27"/>
     </row>
-    <row r="33" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
-      <c r="B33" s="15" t="s">
+    <row r="33" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="36">
+        <v>62</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47">
+        <f>IF(SUM(K33:AF33)=0," ",SUM(K33:AF33))</f>
+        <v>2</v>
+      </c>
+      <c r="E33" s="47">
+        <v>1</v>
+      </c>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="75">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="61"/>
+      <c r="AE33" s="69"/>
+      <c r="AF33" s="72"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="27"/>
+      <c r="AN33" s="27"/>
+      <c r="AO33" s="27"/>
+      <c r="AP33" s="27"/>
+    </row>
+    <row r="34" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="45"/>
+      <c r="B34" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="25">
-        <f>SUM(C5+C11+C16+C24+C27+C30)</f>
-        <v>49.5</v>
-      </c>
-      <c r="D33" s="25">
-        <f>SUM(D30+D27+D24+D16+D11+D5)</f>
-        <v>67.25</v>
-      </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="64">
-        <f>SUM(K6:K32)</f>
+      <c r="C34" s="25">
+        <f>SUM(C5+C11+C16+C25+C28+C31)</f>
+        <v>52.5</v>
+      </c>
+      <c r="D34" s="25">
+        <f>SUM(D31+D28+D25+D16+D11+D5)</f>
+        <v>73.25</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="64">
+        <f>SUM(K6:K33)</f>
         <v>1</v>
       </c>
-      <c r="L33" s="65">
-        <f>SUM(L5:L32)</f>
+      <c r="L34" s="65">
+        <f>SUM(L5:L33)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="25">
-        <f>SUM(M5:M32)</f>
+      <c r="M34" s="25">
+        <f>SUM(M5:M33)</f>
         <v>0</v>
       </c>
-      <c r="N33" s="65">
-        <f>SUM(N5:N32)</f>
+      <c r="N34" s="65">
+        <f>SUM(N5:N33)</f>
         <v>7.8</v>
       </c>
-      <c r="O33" s="65">
-        <f>SUM(O5:O32)</f>
+      <c r="O34" s="65">
+        <f>SUM(O5:O33)</f>
         <v>7.5</v>
       </c>
-      <c r="P33" s="65">
-        <f t="shared" ref="P33:Z33" si="1">SUM(P5:P32)</f>
+      <c r="P34" s="65">
+        <f t="shared" ref="P34:Z34" si="1">SUM(P5:P33)</f>
         <v>7</v>
       </c>
-      <c r="Q33" s="65">
+      <c r="Q34" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R33" s="25">
+      <c r="R34" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S33" s="65">
+      <c r="S34" s="65">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T33" s="25">
+      <c r="T34" s="25">
         <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
-      <c r="U33" s="65">
+      <c r="U34" s="65">
         <f t="shared" si="1"/>
         <v>7.25</v>
       </c>
-      <c r="V33" s="65">
+      <c r="V34" s="65">
         <v>1</v>
       </c>
-      <c r="W33" s="65">
+      <c r="W34" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X33" s="25">
+      <c r="X34" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="65">
+      <c r="Y34" s="65">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="Z33" s="25">
+      <c r="Z34" s="25">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="AA33" s="65">
-        <f>SUM(AA5:AA32)</f>
-        <v>7</v>
-      </c>
-      <c r="AB33" s="65">
-        <f>SUM(AB5:AB32)</f>
+      <c r="AA34" s="65">
+        <f>SUM(AA5:AA33)</f>
+        <v>7.5</v>
+      </c>
+      <c r="AB34" s="65">
+        <f>SUM(AB5:AB33)</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="25">
-        <f>SUM(AC5:AC32)</f>
+      <c r="AC34" s="25">
+        <f>SUM(AC5:AC33)</f>
         <v>0</v>
       </c>
-      <c r="AD33" s="65">
-        <f>SUM(AD5:AD32)</f>
+      <c r="AD34" s="65">
+        <f>SUM(AD5:AD33)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AE34" s="26">
+        <f>SUM(AE5:AE33)</f>
         <v>0</v>
       </c>
-      <c r="AE33" s="26">
-        <f>SUM(AE5:AE32)</f>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="73"/>
-    </row>
-    <row r="34" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="24"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="28"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
-      <c r="AK34" s="28"/>
-      <c r="AL34" s="28"/>
-      <c r="AM34" s="28"/>
-      <c r="AN34" s="28"/>
-      <c r="AO34" s="28"/>
-      <c r="AP34" s="28"/>
-    </row>
-    <row r="35" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
-      <c r="B35" s="7" t="s">
+      <c r="AF34" s="73"/>
+    </row>
+    <row r="35" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="24"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="28"/>
+      <c r="AI35" s="28"/>
+      <c r="AJ35" s="28"/>
+      <c r="AK35" s="28"/>
+      <c r="AL35" s="28"/>
+      <c r="AM35" s="28"/>
+      <c r="AN35" s="28"/>
+      <c r="AO35" s="28"/>
+      <c r="AP35" s="28"/>
+    </row>
+    <row r="36" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="86"/>
-      <c r="S35" s="86"/>
-      <c r="T35" s="86"/>
-      <c r="U35" s="86"/>
-      <c r="V35" s="86"/>
-      <c r="W35" s="86"/>
-      <c r="X35" s="86"/>
-      <c r="Y35" s="86"/>
-      <c r="Z35" s="86"/>
-      <c r="AA35" s="86"/>
-      <c r="AB35" s="86"/>
-      <c r="AC35" s="86"/>
-      <c r="AD35" s="86"/>
-      <c r="AE35" s="86"/>
-      <c r="AF35" s="86"/>
-    </row>
-    <row r="36" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="84"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="83"/>
       <c r="M36" s="84"/>
       <c r="N36" s="84"/>
       <c r="O36" s="84"/>
@@ -4046,10 +4073,12 @@
       <c r="AE36" s="84"/>
       <c r="AF36" s="84"/>
     </row>
-    <row r="37" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="77"/>
+    <row r="37" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="76" t="s">
+        <v>49</v>
+      </c>
       <c r="B37" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -4060,68 +4089,104 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="84"/>
-      <c r="R37" s="84"/>
-      <c r="S37" s="84"/>
-      <c r="T37" s="84"/>
-      <c r="U37" s="84"/>
-      <c r="V37" s="84"/>
-      <c r="W37" s="84"/>
-      <c r="X37" s="84"/>
-      <c r="Y37" s="84"/>
-      <c r="Z37" s="84"/>
-      <c r="AA37" s="84"/>
-      <c r="AB37" s="84"/>
-      <c r="AC37" s="84"/>
-      <c r="AD37" s="84"/>
-      <c r="AE37" s="84"/>
-      <c r="AF37" s="84"/>
-    </row>
-    <row r="38" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="9"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="82"/>
+      <c r="R37" s="82"/>
+      <c r="S37" s="82"/>
+      <c r="T37" s="82"/>
+      <c r="U37" s="82"/>
+      <c r="V37" s="82"/>
+      <c r="W37" s="82"/>
+      <c r="X37" s="82"/>
+      <c r="Y37" s="82"/>
+      <c r="Z37" s="82"/>
+      <c r="AA37" s="82"/>
+      <c r="AB37" s="82"/>
+      <c r="AC37" s="82"/>
+      <c r="AD37" s="82"/>
+      <c r="AE37" s="82"/>
+      <c r="AF37" s="82"/>
+    </row>
+    <row r="38" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="77"/>
+      <c r="B38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="82"/>
+      <c r="R38" s="82"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="82"/>
+      <c r="U38" s="82"/>
+      <c r="V38" s="82"/>
+      <c r="W38" s="82"/>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="82"/>
+      <c r="Z38" s="82"/>
+      <c r="AA38" s="82"/>
+      <c r="AB38" s="82"/>
+      <c r="AC38" s="82"/>
+      <c r="AD38" s="82"/>
+      <c r="AE38" s="82"/>
+      <c r="AF38" s="82"/>
+    </row>
+    <row r="39" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="11"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
+    <row r="44" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="L36:AF37"/>
-    <mergeCell ref="L35:AF35"/>
-    <mergeCell ref="B34:J34"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="W3:AA3"/>
     <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="L37:AF38"/>
+    <mergeCell ref="L36:AF36"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4141,35 +4206,35 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.69921875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-    </row>
-    <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+    </row>
+    <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="2"/>
@@ -4185,7 +4250,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>15</v>
       </c>
@@ -4193,207 +4258,207 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B4" s="18">
-        <f>Zeitplanung!L33</f>
+        <f>Zeitplanung!L34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B5" s="18">
-        <f>Zeitplanung!M33</f>
+        <f>Zeitplanung!M34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B6" s="18">
-        <f>Zeitplanung!N33</f>
+        <f>Zeitplanung!N34</f>
         <v>7.8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B7" s="18">
-        <f>Zeitplanung!O33</f>
+        <f>Zeitplanung!O34</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B8" s="18">
-        <f>Zeitplanung!P33</f>
+        <f>Zeitplanung!P34</f>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B9" s="18">
-        <f>Zeitplanung!Q33</f>
+        <f>Zeitplanung!Q34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B10" s="18">
-        <f>Zeitplanung!R33</f>
+        <f>Zeitplanung!R34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B11" s="18">
-        <f>Zeitplanung!S33</f>
+        <f>Zeitplanung!S34</f>
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B12" s="18">
-        <f>Zeitplanung!T33</f>
+        <f>Zeitplanung!T34</f>
         <v>7.2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B13" s="18">
-        <f>Zeitplanung!U33</f>
+        <f>Zeitplanung!U34</f>
         <v>7.25</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B14" s="18">
-        <f>Zeitplanung!W33</f>
+        <f>Zeitplanung!W34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B15" s="18">
-        <f>Zeitplanung!X33</f>
+        <f>Zeitplanung!X34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B16" s="18">
-        <f>Zeitplanung!Y33</f>
+        <f>Zeitplanung!Y34</f>
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B17" s="18">
-        <f>Zeitplanung!Z33</f>
+        <f>Zeitplanung!Z34</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B18" s="18">
-        <f>Zeitplanung!AA33</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>Zeitplanung!AA34</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B19" s="18">
-        <f>Zeitplanung!AB33</f>
+        <f>Zeitplanung!AB34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B20" s="18">
-        <f>Zeitplanung!AC33</f>
+        <f>Zeitplanung!AC34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B21" s="18">
-        <f>Zeitplanung!AD33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>Zeitplanung!AD34</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B22" s="18">
-        <f>Zeitplanung!AE33</f>
+        <f>Zeitplanung!AE34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B23" s="18">
-        <f>Zeitplanung!AF33</f>
+        <f>Zeitplanung!AF34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4403,7 +4468,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4413,7 +4478,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4423,67 +4488,67 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B27" s="18">
-        <f>Zeitplanung!O30</f>
+        <f>Zeitplanung!O31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B28" s="18">
-        <f>Zeitplanung!P30</f>
+        <f>Zeitplanung!P31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B29" s="18">
-        <f>Zeitplanung!Q30</f>
+        <f>Zeitplanung!Q31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B30" s="18">
-        <f>Zeitplanung!U30</f>
+        <f>Zeitplanung!U31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B31" s="18">
-        <f>Zeitplanung!S30</f>
+        <f>Zeitplanung!S31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
       </c>
       <c r="B32" s="18">
-        <f>Zeitplanung!T30</f>
+        <f>Zeitplanung!T31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <f>Zeitplanung!L$4</f>
         <v>43080</v>
@@ -4493,13 +4558,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:4" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="91" t="s">
+    <row r="34" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="92"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="3" t="s">
         <v>21</v>
       </c>
@@ -4507,25 +4572,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="88" t="s">
+    <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="89"/>
+      <c r="B37" s="90"/>
       <c r="C37" s="18">
         <f>Zeitplanung!C5</f>
         <v>16.3</v>
       </c>
       <c r="D37" s="18">
         <f>Zeitplanung!D5</f>
-        <v>15.75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="93" t="s">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="94"/>
+      <c r="B38" s="95"/>
       <c r="C38" s="18">
         <f>Zeitplanung!C11</f>
         <v>2.7</v>
@@ -4535,63 +4600,63 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="88" t="s">
+    <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="89"/>
+      <c r="B39" s="90"/>
       <c r="C39" s="18">
         <f>Zeitplanung!C16</f>
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
       <c r="D39" s="18">
         <f>Zeitplanung!D16</f>
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="94"/>
+      <c r="B40" s="95"/>
       <c r="C40" s="18">
-        <f>Zeitplanung!C24</f>
+        <f>Zeitplanung!C25</f>
         <v>5</v>
       </c>
       <c r="D40" s="18">
-        <f>Zeitplanung!D24</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="88" t="s">
+        <f>Zeitplanung!D25</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="89"/>
+      <c r="B41" s="90"/>
       <c r="C41" s="18">
-        <f>Zeitplanung!C27</f>
+        <f>Zeitplanung!C28</f>
         <v>6</v>
       </c>
       <c r="D41" s="18">
-        <f>Zeitplanung!D27</f>
+        <f>Zeitplanung!D28</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="88" t="s">
+    <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="89"/>
+      <c r="B42" s="90"/>
       <c r="C42" s="18">
-        <f>Zeitplanung!C30</f>
+        <f>Zeitplanung!C31</f>
         <v>0</v>
       </c>
       <c r="D42" s="18">
-        <f>Zeitplanung!D30</f>
+        <f>Zeitplanung!D31</f>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A41:B41"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>Nr.</t>
   </si>
@@ -325,14 +325,18 @@
   </si>
   <si>
     <t>Design</t>
+  </si>
+  <si>
+    <t>Ferien</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -501,7 +505,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,6 +579,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -759,7 +769,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -895,9 +905,6 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -956,9 +963,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="3" applyBorder="1"/>
@@ -967,22 +971,67 @@
     <xf numFmtId="14" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="9" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="12" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="12" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="9" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="14" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1024,6 +1073,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Akzent2" xfId="5" builtinId="33"/>
@@ -1267,10 +1322,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -1454,13 +1509,13 @@
                   <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1519,19 +1574,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>17.25</c:v>
+                  <c:v>19.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.5</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -2041,7 +2096,7 @@
   <dimension ref="A1:AP44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AD34" sqref="AD34"/>
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2059,40 +2114,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
       <c r="AG1" s="29"/>
       <c r="AH1" s="29"/>
       <c r="AI1" s="29"/>
@@ -2136,25 +2191,25 @@
       <c r="AC2" s="29"/>
       <c r="AD2" s="29"/>
       <c r="AE2" s="29"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
     </row>
     <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="87"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -2162,45 +2217,45 @@
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87" t="s">
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="87" t="s">
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87" t="s">
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="81"/>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="81"/>
-      <c r="AO3" s="81"/>
-      <c r="AP3" s="81"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="100"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="94"/>
+      <c r="AO3" s="94"/>
+      <c r="AP3" s="94"/>
     </row>
     <row r="4" spans="1:42" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
@@ -2294,7 +2349,7 @@
       <c r="AE4" s="44">
         <v>43118</v>
       </c>
-      <c r="AF4" s="74"/>
+      <c r="AF4" s="72"/>
       <c r="AG4" s="27"/>
       <c r="AH4" s="27"/>
       <c r="AI4" s="27"/>
@@ -2319,7 +2374,7 @@
       </c>
       <c r="D5" s="25">
         <f>SUM(D6:D10)</f>
-        <v>17.25</v>
+        <v>19.75</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
@@ -2348,7 +2403,7 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="14"/>
-      <c r="AF5" s="71"/>
+      <c r="AF5" s="69"/>
     </row>
     <row r="6" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
@@ -2372,30 +2427,30 @@
       <c r="H6" s="47"/>
       <c r="I6" s="48"/>
       <c r="J6" s="36"/>
-      <c r="K6" s="49">
+      <c r="K6" s="82">
         <v>1</v>
       </c>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="51"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="50"/>
       <c r="T6" s="47"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="51"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="91"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="50"/>
       <c r="Z6" s="47"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="72"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="70"/>
       <c r="AG6" s="27"/>
       <c r="AH6" s="27"/>
       <c r="AI6" s="27"/>
@@ -2428,33 +2483,33 @@
       <c r="G7" s="47"/>
       <c r="H7" s="47"/>
       <c r="I7" s="48"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="55">
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="77">
         <v>3</v>
       </c>
-      <c r="O7" s="55">
+      <c r="O7" s="77">
         <v>0.5</v>
       </c>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="51"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="50"/>
       <c r="T7" s="47"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="51"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="50"/>
       <c r="Z7" s="47"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="72"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="70"/>
       <c r="AG7" s="27"/>
       <c r="AH7" s="27"/>
       <c r="AI7" s="27"/>
@@ -2478,7 +2533,7 @@
       </c>
       <c r="D8" s="47">
         <f>IF(SUM(K8:AF8)=0," ",SUM(K8:AF8))</f>
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="E8" s="47">
         <v>1</v>
@@ -2487,35 +2542,37 @@
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
       <c r="I8" s="48"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="55">
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="77">
         <v>0.5</v>
       </c>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="50"/>
       <c r="T8" s="47"/>
-      <c r="U8" s="55">
+      <c r="U8" s="77">
         <v>0.75</v>
       </c>
-      <c r="V8" s="56"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="51"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="50"/>
       <c r="Z8" s="47"/>
-      <c r="AA8" s="55">
+      <c r="AA8" s="77">
         <v>0.5</v>
       </c>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="51"/>
-      <c r="AE8" s="70"/>
-      <c r="AF8" s="72"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="AF8" s="70"/>
       <c r="AG8" s="27"/>
       <c r="AH8" s="27"/>
       <c r="AI8" s="27"/>
@@ -2548,31 +2605,31 @@
       <c r="G9" s="47"/>
       <c r="H9" s="47"/>
       <c r="I9" s="48"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="55">
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="77">
         <v>1.5</v>
       </c>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="50"/>
       <c r="T9" s="47"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="51"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="50"/>
       <c r="Z9" s="47"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="72"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="70"/>
       <c r="AG9" s="27"/>
       <c r="AH9" s="27"/>
       <c r="AI9" s="27"/>
@@ -2596,7 +2653,7 @@
       </c>
       <c r="D10" s="47">
         <f>IF(SUM(K10:AF10)=0," ",SUM(K10:AF10))</f>
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="E10" s="47">
         <v>1</v>
@@ -2605,39 +2662,41 @@
       <c r="G10" s="47"/>
       <c r="H10" s="47"/>
       <c r="I10" s="48"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="56">
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="79">
         <v>2</v>
       </c>
-      <c r="T10" s="57">
+      <c r="T10" s="78">
         <v>3</v>
       </c>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="57">
+      <c r="U10" s="55"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="78">
         <v>1.5</v>
       </c>
-      <c r="AA10" s="55">
+      <c r="AA10" s="77">
         <v>1.5</v>
       </c>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="55">
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="77">
         <v>1.5</v>
       </c>
-      <c r="AE10" s="70"/>
-      <c r="AF10" s="72"/>
+      <c r="AE10" s="87">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="70"/>
       <c r="AG10" s="27"/>
       <c r="AH10" s="27"/>
       <c r="AI10" s="27"/>
@@ -2668,7 +2727,7 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="58"/>
+      <c r="I11" s="57"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
@@ -2691,7 +2750,7 @@
       <c r="AC11" s="25"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="26"/>
-      <c r="AF11" s="72"/>
+      <c r="AF11" s="70"/>
     </row>
     <row r="12" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
@@ -2714,31 +2773,31 @@
       <c r="G12" s="47"/>
       <c r="H12" s="47"/>
       <c r="I12" s="48"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="55">
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="77">
         <v>3</v>
       </c>
-      <c r="O12" s="56"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="51"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="50"/>
       <c r="T12" s="47"/>
       <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="51"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="50"/>
       <c r="Z12" s="47"/>
       <c r="AA12" s="47"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="72"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="70"/>
       <c r="AG12" s="27"/>
       <c r="AH12" s="27"/>
       <c r="AI12" s="27"/>
@@ -2769,31 +2828,31 @@
       <c r="G13" s="47"/>
       <c r="H13" s="47"/>
       <c r="I13" s="48"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="55">
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="77">
         <v>1</v>
       </c>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="51"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="50"/>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="51"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="50"/>
       <c r="Z13" s="47"/>
       <c r="AA13" s="47"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="72"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="70"/>
       <c r="AG13" s="27"/>
       <c r="AH13" s="27"/>
       <c r="AI13" s="27"/>
@@ -2820,29 +2879,29 @@
       <c r="G14" s="47"/>
       <c r="H14" s="47"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="51"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="50"/>
       <c r="T14" s="47"/>
       <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="51"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="50"/>
       <c r="Z14" s="47"/>
       <c r="AA14" s="47"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="72"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="70"/>
       <c r="AG14" s="27"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="27"/>
@@ -2869,29 +2928,29 @@
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
       <c r="I15" s="48"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="51"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="50"/>
       <c r="T15" s="47"/>
       <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="51"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="50"/>
       <c r="Z15" s="47"/>
       <c r="AA15" s="47"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="72"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="70"/>
       <c r="AG15" s="27"/>
       <c r="AH15" s="27"/>
       <c r="AI15" s="27"/>
@@ -2916,13 +2975,13 @@
       </c>
       <c r="D16" s="45">
         <f>SUM(D17:D24)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="58"/>
+      <c r="I16" s="57"/>
       <c r="J16" s="25"/>
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
@@ -2945,13 +3004,13 @@
       <c r="AC16" s="25"/>
       <c r="AD16" s="25"/>
       <c r="AE16" s="26"/>
-      <c r="AF16" s="72"/>
+      <c r="AF16" s="70"/>
     </row>
     <row r="17" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>31</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="58" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="47">
@@ -2968,33 +3027,33 @@
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
       <c r="I17" s="48"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="55">
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="77">
         <v>0.8</v>
       </c>
-      <c r="O17" s="55">
+      <c r="O17" s="77">
         <v>0.5</v>
       </c>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="51"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="50"/>
       <c r="T17" s="47"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="51"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="50"/>
       <c r="Z17" s="47"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="72"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="70"/>
       <c r="AG17" s="27"/>
       <c r="AH17" s="27"/>
       <c r="AI17" s="27"/>
@@ -3010,7 +3069,7 @@
       <c r="A18" s="36">
         <v>32</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="58" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="47">
@@ -3027,31 +3086,31 @@
       <c r="G18" s="47"/>
       <c r="H18" s="47"/>
       <c r="I18" s="48"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="78">
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="85">
         <v>3</v>
       </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="56"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="55"/>
       <c r="T18" s="47"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="51"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="50"/>
       <c r="Z18" s="47"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="53"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="72"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="70"/>
       <c r="AG18" s="27"/>
       <c r="AH18" s="27"/>
       <c r="AI18" s="27"/>
@@ -3067,7 +3126,7 @@
       <c r="A19" s="36">
         <v>33</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="58" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="47">
@@ -3084,33 +3143,33 @@
       <c r="G19" s="47"/>
       <c r="H19" s="47"/>
       <c r="I19" s="48"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51">
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81">
         <v>1</v>
       </c>
-      <c r="P19" s="55">
+      <c r="P19" s="77">
         <v>3</v>
       </c>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="72"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="68"/>
+      <c r="AF19" s="70"/>
       <c r="AG19" s="27"/>
       <c r="AH19" s="27"/>
       <c r="AI19" s="27"/>
@@ -3126,7 +3185,7 @@
       <c r="A20" s="36">
         <v>34</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="58" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="47">
@@ -3143,37 +3202,37 @@
       <c r="G20" s="47"/>
       <c r="H20" s="47"/>
       <c r="I20" s="48"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51">
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81">
         <v>2.5</v>
       </c>
-      <c r="P20" s="55">
+      <c r="P20" s="77">
         <v>1.5</v>
       </c>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="55">
+      <c r="Q20" s="51"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="77">
         <v>1.5</v>
       </c>
       <c r="T20" s="47"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="57">
+      <c r="U20" s="55"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="78">
         <v>0.5</v>
       </c>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="53"/>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="72"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="70"/>
       <c r="AG20" s="27"/>
       <c r="AH20" s="27"/>
       <c r="AI20" s="27"/>
@@ -3189,7 +3248,7 @@
       <c r="A21" s="36">
         <v>35</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="47">
@@ -3206,37 +3265,37 @@
       <c r="G21" s="47"/>
       <c r="H21" s="47"/>
       <c r="I21" s="48"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="55">
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="77">
         <v>0.5</v>
       </c>
-      <c r="T21" s="49">
+      <c r="T21" s="82">
         <v>1.2</v>
       </c>
-      <c r="U21" s="51">
+      <c r="U21" s="81">
         <v>0.5</v>
       </c>
-      <c r="V21" s="51"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="57">
+      <c r="V21" s="91"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="78">
         <v>0.5</v>
       </c>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="72"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="70"/>
       <c r="AG21" s="27"/>
       <c r="AH21" s="27"/>
       <c r="AI21" s="27"/>
@@ -3252,7 +3311,7 @@
       <c r="A22" s="36">
         <v>36</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="58" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="47">
@@ -3260,7 +3319,7 @@
       </c>
       <c r="D22" s="47">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" s="47">
         <v>1</v>
@@ -3269,37 +3328,39 @@
       <c r="G22" s="47"/>
       <c r="H22" s="47"/>
       <c r="I22" s="48"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="51">
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="81">
         <v>2.5</v>
       </c>
-      <c r="T22" s="49">
+      <c r="T22" s="82">
         <v>2</v>
       </c>
-      <c r="U22" s="51">
+      <c r="U22" s="81">
         <v>2</v>
       </c>
-      <c r="V22" s="51"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="57">
+      <c r="V22" s="91"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="78">
         <v>1.5</v>
       </c>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="53"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="72"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="81">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="68"/>
+      <c r="AF22" s="70"/>
       <c r="AG22" s="27"/>
       <c r="AH22" s="27"/>
       <c r="AI22" s="27"/>
@@ -3312,8 +3373,8 @@
       <c r="AP22" s="27"/>
     </row>
     <row r="23" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
-      <c r="B23" s="59" t="s">
+      <c r="A23" s="76"/>
+      <c r="B23" s="58" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="47">
@@ -3321,40 +3382,42 @@
       </c>
       <c r="D23" s="47">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
       <c r="H23" s="47"/>
       <c r="I23" s="48"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="55">
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="91"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="77">
         <v>0.5</v>
       </c>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="55">
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="77">
         <v>2</v>
       </c>
-      <c r="AE23" s="69"/>
-      <c r="AF23" s="72"/>
+      <c r="AE23" s="68">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="70"/>
       <c r="AG23" s="27"/>
       <c r="AH23" s="27"/>
       <c r="AI23" s="27"/>
@@ -3370,7 +3433,7 @@
       <c r="A24" s="36">
         <v>37</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="58" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="47">
@@ -3387,37 +3450,37 @@
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
       <c r="I24" s="48"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="52" t="s">
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="51">
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="81">
         <v>0.5</v>
       </c>
-      <c r="T24" s="47">
+      <c r="T24" s="83">
         <v>0.5</v>
       </c>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="56">
+      <c r="U24" s="54"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="79">
         <v>0.5</v>
       </c>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="53"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="69"/>
-      <c r="AF24" s="72"/>
+      <c r="Z24" s="78"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="68"/>
+      <c r="AF24" s="70"/>
       <c r="AG24" s="27"/>
       <c r="AH24" s="27"/>
       <c r="AI24" s="27"/>
@@ -3438,17 +3501,17 @@
       </c>
       <c r="C25" s="25">
         <f>SUM(C26:C27)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D25" s="45">
         <f>SUM(D26:D27)</f>
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="58"/>
+      <c r="I25" s="57"/>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
@@ -3464,20 +3527,20 @@
       <c r="V25" s="30"/>
       <c r="W25" s="25"/>
       <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
+      <c r="Y25" s="80"/>
+      <c r="Z25" s="80"/>
+      <c r="AA25" s="80"/>
       <c r="AB25" s="25"/>
       <c r="AC25" s="25"/>
       <c r="AD25" s="25"/>
       <c r="AE25" s="26"/>
-      <c r="AF25" s="72"/>
+      <c r="AF25" s="70"/>
     </row>
     <row r="26" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <v>41</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="47">
@@ -3485,7 +3548,7 @@
       </c>
       <c r="D26" s="47">
         <f>IF(SUM(K26:AF26)=0," ",SUM(K26:AF26))</f>
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="E26" s="47">
         <v>1</v>
@@ -3494,39 +3557,41 @@
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
       <c r="I26" s="48"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="47">
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="83">
         <v>0.5</v>
       </c>
-      <c r="U26" s="55">
+      <c r="U26" s="77">
         <v>1</v>
       </c>
-      <c r="V26" s="55"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="55">
+      <c r="V26" s="91"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="77">
         <v>2.5</v>
       </c>
-      <c r="Z26" s="57">
+      <c r="Z26" s="78">
         <v>0.5</v>
       </c>
-      <c r="AA26" s="56">
+      <c r="AA26" s="79">
         <v>1</v>
       </c>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="53"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="69"/>
-      <c r="AF26" s="72"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="68">
+        <v>1.5</v>
+      </c>
+      <c r="AF26" s="70"/>
       <c r="AG26" s="27"/>
       <c r="AH26" s="27"/>
       <c r="AI26" s="27"/>
@@ -3542,15 +3607,15 @@
       <c r="A27" s="36">
         <v>42</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="58" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="47">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D27" s="47">
         <f>IF(SUM(K27:AF27)=0," ",SUM(K27:AF27))</f>
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="E27" s="47">
         <v>1</v>
@@ -3559,39 +3624,41 @@
       <c r="G27" s="47"/>
       <c r="H27" s="47"/>
       <c r="I27" s="48"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="51">
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="81">
         <v>3</v>
       </c>
-      <c r="V27" s="51"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="51">
+      <c r="V27" s="91"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="81">
         <v>4</v>
       </c>
-      <c r="Z27" s="49">
+      <c r="Z27" s="82">
         <v>3</v>
       </c>
-      <c r="AA27" s="51">
+      <c r="AA27" s="81">
         <v>2</v>
       </c>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="53"/>
-      <c r="AD27" s="51">
-        <v>2</v>
-      </c>
-      <c r="AE27" s="69"/>
-      <c r="AF27" s="72"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="52"/>
+      <c r="AD27" s="81">
+        <v>2.5</v>
+      </c>
+      <c r="AE27" s="90">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="70"/>
       <c r="AG27" s="27"/>
       <c r="AH27" s="27"/>
       <c r="AI27" s="27"/>
@@ -3616,42 +3683,42 @@
       </c>
       <c r="D28" s="45">
         <f>SUM(D29:D30)</f>
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
-      <c r="I28" s="58"/>
+      <c r="I28" s="57"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="67"/>
       <c r="W28" s="25"/>
       <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
+      <c r="Y28" s="80"/>
+      <c r="Z28" s="80"/>
+      <c r="AA28" s="80"/>
       <c r="AB28" s="25"/>
       <c r="AC28" s="25"/>
       <c r="AD28" s="25"/>
       <c r="AE28" s="26"/>
-      <c r="AF28" s="72"/>
+      <c r="AF28" s="70"/>
     </row>
     <row r="29" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>51</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="58" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="47">
@@ -3668,31 +3735,31 @@
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
       <c r="I29" s="48"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51">
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="81">
         <v>0.5</v>
       </c>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="50"/>
       <c r="T29" s="47"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="53"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="69"/>
-      <c r="AF29" s="72"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="91"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="81"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="81"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="68"/>
+      <c r="AF29" s="70"/>
       <c r="AG29" s="27"/>
       <c r="AH29" s="27"/>
       <c r="AI29" s="27"/>
@@ -3708,45 +3775,47 @@
       <c r="A30" s="36">
         <v>52</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="58" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="47">
         <v>5</v>
       </c>
       <c r="D30" s="47">
-        <v>1</v>
-      </c>
-      <c r="E30" s="47"/>
+        <v>4</v>
+      </c>
+      <c r="E30" s="47">
+        <v>3</v>
+      </c>
       <c r="F30" s="47"/>
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
       <c r="I30" s="48"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="51"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="50"/>
       <c r="T30" s="47"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51">
+      <c r="U30" s="50"/>
+      <c r="V30" s="93">
         <v>4</v>
       </c>
-      <c r="W30" s="52"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="53"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="69"/>
-      <c r="AF30" s="72"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="81"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="81"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="68"/>
+      <c r="AF30" s="70"/>
       <c r="AG30" s="27"/>
       <c r="AH30" s="27"/>
       <c r="AI30" s="27"/>
@@ -3793,20 +3862,20 @@
       <c r="V31" s="30"/>
       <c r="W31" s="25"/>
       <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
+      <c r="Y31" s="80"/>
+      <c r="Z31" s="80"/>
+      <c r="AA31" s="80"/>
       <c r="AB31" s="25"/>
       <c r="AC31" s="25"/>
       <c r="AD31" s="25"/>
       <c r="AE31" s="26"/>
-      <c r="AF31" s="72"/>
+      <c r="AF31" s="70"/>
     </row>
     <row r="32" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
         <v>61</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="58" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="47"/>
@@ -3821,29 +3890,29 @@
       <c r="G32" s="47"/>
       <c r="H32" s="47"/>
       <c r="I32" s="48"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="51"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="50"/>
       <c r="T32" s="47"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="53"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="69"/>
-      <c r="AF32" s="72"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="91"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="81"/>
+      <c r="Z32" s="83"/>
+      <c r="AA32" s="81"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="55"/>
+      <c r="AE32" s="68"/>
+      <c r="AF32" s="70"/>
       <c r="AG32" s="27"/>
       <c r="AH32" s="27"/>
       <c r="AI32" s="27"/>
@@ -3859,7 +3928,7 @@
       <c r="A33" s="36">
         <v>62</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="58" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="47"/>
@@ -3874,31 +3943,31 @@
       <c r="G33" s="47"/>
       <c r="H33" s="47"/>
       <c r="I33" s="48"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="51"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="50"/>
       <c r="T33" s="47"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="75">
+      <c r="U33" s="50"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="81"/>
+      <c r="Z33" s="83"/>
+      <c r="AA33" s="84">
         <v>2</v>
       </c>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="53"/>
-      <c r="AD33" s="61"/>
-      <c r="AE33" s="69"/>
-      <c r="AF33" s="72"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="68"/>
+      <c r="AF33" s="70"/>
       <c r="AG33" s="27"/>
       <c r="AH33" s="27"/>
       <c r="AI33" s="27"/>
@@ -3917,23 +3986,23 @@
       </c>
       <c r="C34" s="25">
         <f>SUM(C5+C11+C16+C25+C28+C31)</f>
-        <v>52.5</v>
+        <v>58.5</v>
       </c>
       <c r="D34" s="25">
         <f>SUM(D31+D28+D25+D16+D11+D5)</f>
-        <v>73.25</v>
+        <v>83.75</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="64">
+      <c r="I34" s="61"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="63">
         <f>SUM(K6:K33)</f>
         <v>1</v>
       </c>
-      <c r="L34" s="65">
+      <c r="L34" s="64">
         <f>SUM(L5:L33)</f>
         <v>0</v>
       </c>
@@ -3941,90 +4010,90 @@
         <f>SUM(M5:M33)</f>
         <v>0</v>
       </c>
-      <c r="N34" s="65">
+      <c r="N34" s="88">
         <f>SUM(N5:N33)</f>
         <v>7.8</v>
       </c>
-      <c r="O34" s="65">
+      <c r="O34" s="88">
         <f>SUM(O5:O33)</f>
         <v>7.5</v>
       </c>
-      <c r="P34" s="65">
+      <c r="P34" s="88">
         <f t="shared" ref="P34:Z34" si="1">SUM(P5:P33)</f>
         <v>7</v>
       </c>
-      <c r="Q34" s="65">
+      <c r="Q34" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R34" s="25">
+      <c r="R34" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S34" s="65">
+      <c r="S34" s="88">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T34" s="25">
+      <c r="T34" s="80">
         <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
-      <c r="U34" s="65">
+      <c r="U34" s="88">
         <f t="shared" si="1"/>
         <v>7.25</v>
       </c>
-      <c r="V34" s="65">
-        <v>1</v>
-      </c>
-      <c r="W34" s="65">
+      <c r="V34" s="88">
+        <v>4</v>
+      </c>
+      <c r="W34" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X34" s="25">
+      <c r="X34" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="65">
+      <c r="Y34" s="88">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="Z34" s="25">
+      <c r="Z34" s="80">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="AA34" s="65">
+      <c r="AA34" s="88">
         <f>SUM(AA5:AA33)</f>
         <v>7.5</v>
       </c>
-      <c r="AB34" s="65">
+      <c r="AB34" s="88">
         <f>SUM(AB5:AB33)</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="25">
+      <c r="AC34" s="80">
         <f>SUM(AC5:AC33)</f>
         <v>0</v>
       </c>
-      <c r="AD34" s="65">
+      <c r="AD34" s="88">
         <f>SUM(AD5:AD33)</f>
-        <v>5.5</v>
-      </c>
-      <c r="AE34" s="26">
+        <v>7</v>
+      </c>
+      <c r="AE34" s="89">
         <f>SUM(AE5:AE33)</f>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="73"/>
+        <v>6</v>
+      </c>
+      <c r="AF34" s="71"/>
     </row>
     <row r="35" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
       <c r="K35" s="24"/>
       <c r="AG35" s="28"/>
       <c r="AH35" s="28"/>
@@ -4051,30 +4120,30 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="84"/>
-      <c r="S36" s="84"/>
-      <c r="T36" s="84"/>
-      <c r="U36" s="84"/>
-      <c r="V36" s="84"/>
-      <c r="W36" s="84"/>
-      <c r="X36" s="84"/>
-      <c r="Y36" s="84"/>
-      <c r="Z36" s="84"/>
-      <c r="AA36" s="84"/>
-      <c r="AB36" s="84"/>
-      <c r="AC36" s="84"/>
-      <c r="AD36" s="84"/>
-      <c r="AE36" s="84"/>
-      <c r="AF36" s="84"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="97"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="97"/>
+      <c r="S36" s="97"/>
+      <c r="T36" s="97"/>
+      <c r="U36" s="97"/>
+      <c r="V36" s="97"/>
+      <c r="W36" s="97"/>
+      <c r="X36" s="97"/>
+      <c r="Y36" s="97"/>
+      <c r="Z36" s="97"/>
+      <c r="AA36" s="97"/>
+      <c r="AB36" s="97"/>
+      <c r="AC36" s="97"/>
+      <c r="AD36" s="97"/>
+      <c r="AE36" s="97"/>
+      <c r="AF36" s="97"/>
     </row>
     <row r="37" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="73" t="s">
         <v>49</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -4089,30 +4158,30 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="82"/>
-      <c r="R37" s="82"/>
-      <c r="S37" s="82"/>
-      <c r="T37" s="82"/>
-      <c r="U37" s="82"/>
-      <c r="V37" s="82"/>
-      <c r="W37" s="82"/>
-      <c r="X37" s="82"/>
-      <c r="Y37" s="82"/>
-      <c r="Z37" s="82"/>
-      <c r="AA37" s="82"/>
-      <c r="AB37" s="82"/>
-      <c r="AC37" s="82"/>
-      <c r="AD37" s="82"/>
-      <c r="AE37" s="82"/>
-      <c r="AF37" s="82"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="95"/>
+      <c r="T37" s="95"/>
+      <c r="U37" s="95"/>
+      <c r="V37" s="95"/>
+      <c r="W37" s="95"/>
+      <c r="X37" s="95"/>
+      <c r="Y37" s="95"/>
+      <c r="Z37" s="95"/>
+      <c r="AA37" s="95"/>
+      <c r="AB37" s="95"/>
+      <c r="AC37" s="95"/>
+      <c r="AD37" s="95"/>
+      <c r="AE37" s="95"/>
+      <c r="AF37" s="95"/>
     </row>
     <row r="38" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="6" t="s">
         <v>51</v>
       </c>
@@ -4125,31 +4194,33 @@
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="82"/>
-      <c r="T38" s="82"/>
-      <c r="U38" s="82"/>
-      <c r="V38" s="82"/>
-      <c r="W38" s="82"/>
-      <c r="X38" s="82"/>
-      <c r="Y38" s="82"/>
-      <c r="Z38" s="82"/>
-      <c r="AA38" s="82"/>
-      <c r="AB38" s="82"/>
-      <c r="AC38" s="82"/>
-      <c r="AD38" s="82"/>
-      <c r="AE38" s="82"/>
-      <c r="AF38" s="82"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="95"/>
+      <c r="S38" s="95"/>
+      <c r="T38" s="95"/>
+      <c r="U38" s="95"/>
+      <c r="V38" s="95"/>
+      <c r="W38" s="95"/>
+      <c r="X38" s="95"/>
+      <c r="Y38" s="95"/>
+      <c r="Z38" s="95"/>
+      <c r="AA38" s="95"/>
+      <c r="AB38" s="95"/>
+      <c r="AC38" s="95"/>
+      <c r="AD38" s="95"/>
+      <c r="AE38" s="95"/>
+      <c r="AF38" s="95"/>
     </row>
     <row r="39" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="110" t="s">
+        <v>55</v>
+      </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
     </row>
@@ -4206,8 +4277,8 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4219,20 +4290,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
+      <c r="A1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
@@ -4435,7 +4506,7 @@
       </c>
       <c r="B21" s="18">
         <f>Zeitplanung!AD34</f>
-        <v>5.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4445,7 +4516,7 @@
       </c>
       <c r="B22" s="18">
         <f>Zeitplanung!AE34</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4561,10 +4632,10 @@
     <row r="34" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="93"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="3" t="s">
         <v>21</v>
       </c>
@@ -4573,24 +4644,24 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="89" t="s">
+      <c r="A37" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="90"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="18">
         <f>Zeitplanung!C5</f>
         <v>16.3</v>
       </c>
       <c r="D37" s="18">
         <f>Zeitplanung!D5</f>
-        <v>17.25</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="95"/>
+      <c r="B38" s="108"/>
       <c r="C38" s="18">
         <f>Zeitplanung!C11</f>
         <v>2.7</v>
@@ -4601,55 +4672,54 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="90"/>
+      <c r="B39" s="103"/>
       <c r="C39" s="18">
         <f>Zeitplanung!C16</f>
         <v>22.5</v>
       </c>
       <c r="D39" s="18">
         <f>Zeitplanung!D16</f>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="94" t="s">
+      <c r="A40" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="95"/>
+      <c r="B40" s="108"/>
       <c r="C40" s="18">
         <f>Zeitplanung!C25</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D40" s="18">
         <f>Zeitplanung!D25</f>
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="90"/>
+      <c r="B41" s="103"/>
       <c r="C41" s="18">
         <f>Zeitplanung!C28</f>
         <v>6</v>
       </c>
       <c r="D41" s="18">
         <f>Zeitplanung!D28</f>
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="90"/>
+      <c r="B42" s="103"/>
       <c r="C42" s="18">
-        <f>Zeitplanung!C31</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" s="18">
         <f>Zeitplanung!D31</f>
